--- a/ExchangeRates.xlsx
+++ b/ExchangeRates.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\finance\tax\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\finance\tax_calc\tax\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="ExchangeRates" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <t>בנק ישראל - שערים יציגים</t>
   </si>
   <si>
-    <t>טווח תאריכים : 02/01/2019 - 07/06/2019</t>
+    <t>טווח תאריכים : 02/01/2019 - 28/06/2019</t>
   </si>
   <si>
     <t>אם לא פורסם שער יציג ליום המבוקש, מוצג השער האחרון שפורסם לפניו</t>
@@ -908,9 +908,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B110"/>
+  <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1781,6 +1783,126 @@
         <v>3.601</v>
       </c>
     </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="4">
+        <v>43626</v>
+      </c>
+      <c r="B111" s="5">
+        <v>3.585</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
+        <v>43627</v>
+      </c>
+      <c r="B112" s="5">
+        <v>3.581</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="4">
+        <v>43628</v>
+      </c>
+      <c r="B113" s="5">
+        <v>3.5819999999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="4">
+        <v>43629</v>
+      </c>
+      <c r="B114" s="5">
+        <v>3.5920000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="4">
+        <v>43630</v>
+      </c>
+      <c r="B115" s="5">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="4">
+        <v>43633</v>
+      </c>
+      <c r="B116" s="5">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="4">
+        <v>43634</v>
+      </c>
+      <c r="B117" s="5">
+        <v>3.6120000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="4">
+        <v>43635</v>
+      </c>
+      <c r="B118" s="5">
+        <v>3.609</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="4">
+        <v>43636</v>
+      </c>
+      <c r="B119" s="5">
+        <v>3.5790000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="4">
+        <v>43637</v>
+      </c>
+      <c r="B120" s="5">
+        <v>3.5939999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
+        <v>43640</v>
+      </c>
+      <c r="B121" s="5">
+        <v>3.6040000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="4">
+        <v>43641</v>
+      </c>
+      <c r="B122" s="5">
+        <v>3.6019999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="4">
+        <v>43642</v>
+      </c>
+      <c r="B123" s="5">
+        <v>3.5910000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="4">
+        <v>43643</v>
+      </c>
+      <c r="B124" s="5">
+        <v>3.5819999999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="4">
+        <v>43644</v>
+      </c>
+      <c r="B125" s="5">
+        <v>3.5659999999999998</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ExchangeRates.xlsx
+++ b/ExchangeRates.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="ExchangeRates" sheetId="1" r:id="rId1"/>
+    <sheet name="ExchangeRates (4)" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,7 +24,7 @@
     <t>בנק ישראל - שערים יציגים</t>
   </si>
   <si>
-    <t>טווח תאריכים : 02/01/2019 - 28/06/2019</t>
+    <t>טווח תאריכים : 02/01/2019 - 20/12/2019</t>
   </si>
   <si>
     <t>אם לא פורסם שער יציג ליום המבוקש, מוצג השער האחרון שפורסם לפניו</t>
@@ -908,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B125"/>
+  <dimension ref="A1:B243"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1903,8 +1903,952 @@
         <v>3.5659999999999998</v>
       </c>
     </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="4">
+        <v>43647</v>
+      </c>
+      <c r="B126" s="5">
+        <v>3.5739999999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="4">
+        <v>43648</v>
+      </c>
+      <c r="B127" s="5">
+        <v>3.5750000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="4">
+        <v>43649</v>
+      </c>
+      <c r="B128" s="5">
+        <v>3.5720000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="4">
+        <v>43650</v>
+      </c>
+      <c r="B129" s="5">
+        <v>3.5670000000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="4">
+        <v>43651</v>
+      </c>
+      <c r="B130" s="5">
+        <v>3.5619999999999998</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="4">
+        <v>43654</v>
+      </c>
+      <c r="B131" s="5">
+        <v>3.573</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="4">
+        <v>43655</v>
+      </c>
+      <c r="B132" s="5">
+        <v>3.5680000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="4">
+        <v>43656</v>
+      </c>
+      <c r="B133" s="5">
+        <v>3.573</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="4">
+        <v>43657</v>
+      </c>
+      <c r="B134" s="5">
+        <v>3.5470000000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="4">
+        <v>43658</v>
+      </c>
+      <c r="B135" s="5">
+        <v>3.5510000000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="4">
+        <v>43661</v>
+      </c>
+      <c r="B136" s="5">
+        <v>3.5390000000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="4">
+        <v>43662</v>
+      </c>
+      <c r="B137" s="5">
+        <v>3.5419999999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="4">
+        <v>43663</v>
+      </c>
+      <c r="B138" s="5">
+        <v>3.5409999999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="4">
+        <v>43664</v>
+      </c>
+      <c r="B139" s="5">
+        <v>3.5430000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="4">
+        <v>43665</v>
+      </c>
+      <c r="B140" s="5">
+        <v>3.5350000000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="4">
+        <v>43668</v>
+      </c>
+      <c r="B141" s="5">
+        <v>3.5339999999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="4">
+        <v>43669</v>
+      </c>
+      <c r="B142" s="5">
+        <v>3.5369999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="4">
+        <v>43670</v>
+      </c>
+      <c r="B143" s="5">
+        <v>3.5209999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="4">
+        <v>43671</v>
+      </c>
+      <c r="B144" s="5">
+        <v>3.5230000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="4">
+        <v>43672</v>
+      </c>
+      <c r="B145" s="5">
+        <v>3.5259999999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="4">
+        <v>43675</v>
+      </c>
+      <c r="B146" s="5">
+        <v>3.5249999999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="4">
+        <v>43676</v>
+      </c>
+      <c r="B147" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="4">
+        <v>43677</v>
+      </c>
+      <c r="B148" s="5">
+        <v>3.4990000000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="4">
+        <v>43678</v>
+      </c>
+      <c r="B149" s="5">
+        <v>3.524</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="4">
+        <v>43679</v>
+      </c>
+      <c r="B150" s="5">
+        <v>3.5089999999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="4">
+        <v>43682</v>
+      </c>
+      <c r="B151" s="5">
+        <v>3.4940000000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="4">
+        <v>43683</v>
+      </c>
+      <c r="B152" s="5">
+        <v>3.4940000000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="4">
+        <v>43684</v>
+      </c>
+      <c r="B153" s="5">
+        <v>3.4870000000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="4">
+        <v>43685</v>
+      </c>
+      <c r="B154" s="5">
+        <v>3.4830000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="4">
+        <v>43686</v>
+      </c>
+      <c r="B155" s="5">
+        <v>3.4790000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="4">
+        <v>43689</v>
+      </c>
+      <c r="B156" s="5">
+        <v>3.484</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="4">
+        <v>43690</v>
+      </c>
+      <c r="B157" s="5">
+        <v>3.4929999999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="4">
+        <v>43691</v>
+      </c>
+      <c r="B158" s="5">
+        <v>3.4889999999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="4">
+        <v>43692</v>
+      </c>
+      <c r="B159" s="5">
+        <v>3.5190000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="4">
+        <v>43693</v>
+      </c>
+      <c r="B160" s="5">
+        <v>3.5409999999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="4">
+        <v>43696</v>
+      </c>
+      <c r="B161" s="5">
+        <v>3.5449999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="4">
+        <v>43697</v>
+      </c>
+      <c r="B162" s="5">
+        <v>3.524</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="4">
+        <v>43698</v>
+      </c>
+      <c r="B163" s="5">
+        <v>3.5270000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="4">
+        <v>43699</v>
+      </c>
+      <c r="B164" s="5">
+        <v>3.5249999999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="4">
+        <v>43700</v>
+      </c>
+      <c r="B165" s="5">
+        <v>3.5110000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="4">
+        <v>43703</v>
+      </c>
+      <c r="B166" s="5">
+        <v>3.5190000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="4">
+        <v>43704</v>
+      </c>
+      <c r="B167" s="5">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="4">
+        <v>43705</v>
+      </c>
+      <c r="B168" s="5">
+        <v>3.524</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="4">
+        <v>43706</v>
+      </c>
+      <c r="B169" s="5">
+        <v>3.5209999999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="4">
+        <v>43707</v>
+      </c>
+      <c r="B170" s="5">
+        <v>3.5350000000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="4">
+        <v>43710</v>
+      </c>
+      <c r="B171" s="5">
+        <v>3.5379999999999998</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="4">
+        <v>43711</v>
+      </c>
+      <c r="B172" s="5">
+        <v>3.5489999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="4">
+        <v>43712</v>
+      </c>
+      <c r="B173" s="5">
+        <v>3.5270000000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="4">
+        <v>43713</v>
+      </c>
+      <c r="B174" s="5">
+        <v>3.512</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="4">
+        <v>43714</v>
+      </c>
+      <c r="B175" s="5">
+        <v>3.5169999999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="4">
+        <v>43717</v>
+      </c>
+      <c r="B176" s="5">
+        <v>3.5270000000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="4">
+        <v>43718</v>
+      </c>
+      <c r="B177" s="5">
+        <v>3.5379999999999998</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="4">
+        <v>43719</v>
+      </c>
+      <c r="B178" s="5">
+        <v>3.544</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="4">
+        <v>43720</v>
+      </c>
+      <c r="B179" s="5">
+        <v>3.5409999999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="4">
+        <v>43721</v>
+      </c>
+      <c r="B180" s="5">
+        <v>3.5270000000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="4">
+        <v>43724</v>
+      </c>
+      <c r="B181" s="5">
+        <v>3.5379999999999998</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="4">
+        <v>43726</v>
+      </c>
+      <c r="B182" s="5">
+        <v>3.5409999999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="4">
+        <v>43727</v>
+      </c>
+      <c r="B183" s="5">
+        <v>3.5209999999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="4">
+        <v>43728</v>
+      </c>
+      <c r="B184" s="5">
+        <v>3.5129999999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="4">
+        <v>43731</v>
+      </c>
+      <c r="B185" s="5">
+        <v>3.5169999999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="4">
+        <v>43732</v>
+      </c>
+      <c r="B186" s="5">
+        <v>3.5070000000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="4">
+        <v>43733</v>
+      </c>
+      <c r="B187" s="5">
+        <v>3.5009999999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="4">
+        <v>43734</v>
+      </c>
+      <c r="B188" s="5">
+        <v>3.5169999999999999</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="4">
+        <v>43735</v>
+      </c>
+      <c r="B189" s="5">
+        <v>3.4820000000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="4">
+        <v>43740</v>
+      </c>
+      <c r="B190" s="5">
+        <v>3.4849999999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="4">
+        <v>43741</v>
+      </c>
+      <c r="B191" s="5">
+        <v>3.4929999999999999</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="4">
+        <v>43742</v>
+      </c>
+      <c r="B192" s="5">
+        <v>3.4809999999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="4">
+        <v>43745</v>
+      </c>
+      <c r="B193" s="5">
+        <v>3.4929999999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="4">
+        <v>43748</v>
+      </c>
+      <c r="B194" s="5">
+        <v>3.504</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="4">
+        <v>43749</v>
+      </c>
+      <c r="B195" s="5">
+        <v>3.51</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="4">
+        <v>43753</v>
+      </c>
+      <c r="B196" s="5">
+        <v>3.5129999999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="4">
+        <v>43754</v>
+      </c>
+      <c r="B197" s="5">
+        <v>3.536</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="4">
+        <v>43755</v>
+      </c>
+      <c r="B198" s="5">
+        <v>3.5449999999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="4">
+        <v>43756</v>
+      </c>
+      <c r="B199" s="5">
+        <v>3.5329999999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="4">
+        <v>43760</v>
+      </c>
+      <c r="B200" s="5">
+        <v>3.5369999999999999</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="4">
+        <v>43761</v>
+      </c>
+      <c r="B201" s="5">
+        <v>3.5379999999999998</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="4">
+        <v>43762</v>
+      </c>
+      <c r="B202" s="5">
+        <v>3.5230000000000001</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="4">
+        <v>43763</v>
+      </c>
+      <c r="B203" s="5">
+        <v>3.5390000000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="4">
+        <v>43766</v>
+      </c>
+      <c r="B204" s="5">
+        <v>3.5289999999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="4">
+        <v>43767</v>
+      </c>
+      <c r="B205" s="5">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="4">
+        <v>43768</v>
+      </c>
+      <c r="B206" s="5">
+        <v>3.528</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="4">
+        <v>43769</v>
+      </c>
+      <c r="B207" s="5">
+        <v>3.5289999999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="4">
+        <v>43770</v>
+      </c>
+      <c r="B208" s="5">
+        <v>3.5209999999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="4">
+        <v>43773</v>
+      </c>
+      <c r="B209" s="5">
+        <v>3.5219999999999998</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="4">
+        <v>43774</v>
+      </c>
+      <c r="B210" s="5">
+        <v>3.5009999999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="4">
+        <v>43775</v>
+      </c>
+      <c r="B211" s="5">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="4">
+        <v>43776</v>
+      </c>
+      <c r="B212" s="5">
+        <v>3.4870000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="4">
+        <v>43777</v>
+      </c>
+      <c r="B213" s="5">
+        <v>3.4950000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="4">
+        <v>43780</v>
+      </c>
+      <c r="B214" s="5">
+        <v>3.4990000000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="4">
+        <v>43781</v>
+      </c>
+      <c r="B215" s="5">
+        <v>3.5110000000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="4">
+        <v>43782</v>
+      </c>
+      <c r="B216" s="5">
+        <v>3.4950000000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="4">
+        <v>43783</v>
+      </c>
+      <c r="B217" s="5">
+        <v>3.488</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="4">
+        <v>43784</v>
+      </c>
+      <c r="B218" s="5">
+        <v>3.4780000000000002</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="4">
+        <v>43787</v>
+      </c>
+      <c r="B219" s="5">
+        <v>3.4630000000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="4">
+        <v>43788</v>
+      </c>
+      <c r="B220" s="5">
+        <v>3.4569999999999999</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="4">
+        <v>43789</v>
+      </c>
+      <c r="B221" s="5">
+        <v>3.4710000000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="4">
+        <v>43790</v>
+      </c>
+      <c r="B222" s="5">
+        <v>3.4550000000000001</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="4">
+        <v>43791</v>
+      </c>
+      <c r="B223" s="5">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="4">
+        <v>43794</v>
+      </c>
+      <c r="B224" s="5">
+        <v>3.4609999999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="4">
+        <v>43795</v>
+      </c>
+      <c r="B225" s="5">
+        <v>3.4630000000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="4">
+        <v>43796</v>
+      </c>
+      <c r="B226" s="5">
+        <v>3.4710000000000001</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="4">
+        <v>43797</v>
+      </c>
+      <c r="B227" s="5">
+        <v>3.4710000000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="4">
+        <v>43798</v>
+      </c>
+      <c r="B228" s="5">
+        <v>3.476</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="4">
+        <v>43801</v>
+      </c>
+      <c r="B229" s="5">
+        <v>3.4740000000000002</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="4">
+        <v>43802</v>
+      </c>
+      <c r="B230" s="5">
+        <v>3.4809999999999999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="4">
+        <v>43803</v>
+      </c>
+      <c r="B231" s="5">
+        <v>3.4710000000000001</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="4">
+        <v>43804</v>
+      </c>
+      <c r="B232" s="5">
+        <v>3.4670000000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="4">
+        <v>43805</v>
+      </c>
+      <c r="B233" s="5">
+        <v>3.4630000000000001</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="4">
+        <v>43808</v>
+      </c>
+      <c r="B234" s="5">
+        <v>3.4710000000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="4">
+        <v>43809</v>
+      </c>
+      <c r="B235" s="5">
+        <v>3.4649999999999999</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="4">
+        <v>43810</v>
+      </c>
+      <c r="B236" s="5">
+        <v>3.4769999999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="4">
+        <v>43811</v>
+      </c>
+      <c r="B237" s="5">
+        <v>3.4809999999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="4">
+        <v>43812</v>
+      </c>
+      <c r="B238" s="5">
+        <v>3.476</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="4">
+        <v>43815</v>
+      </c>
+      <c r="B239" s="5">
+        <v>3.4980000000000002</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="4">
+        <v>43816</v>
+      </c>
+      <c r="B240" s="5">
+        <v>3.492</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="4">
+        <v>43817</v>
+      </c>
+      <c r="B241" s="5">
+        <v>3.5009999999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="4">
+        <v>43818</v>
+      </c>
+      <c r="B242" s="5">
+        <v>3.4929999999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="4">
+        <v>43819</v>
+      </c>
+      <c r="B243" s="5">
+        <v>3.4769999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/ExchangeRates.xlsx
+++ b/ExchangeRates.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="105"/>
   </bookViews>
   <sheets>
-    <sheet name="ExchangeRates (4)" sheetId="1" r:id="rId1"/>
+    <sheet name="_tmp_exchanges" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -24,7 +24,7 @@
     <t>בנק ישראל - שערים יציגים</t>
   </si>
   <si>
-    <t>טווח תאריכים : 02/01/2019 - 20/12/2019</t>
+    <t>טווח תאריכים : 30/12/2018 - 31/12/2019</t>
   </si>
   <si>
     <t>אם לא פורסם שער יציג ליום המבוקש, מוצג השער האחרון שפורסם לפניו</t>
@@ -908,11 +908,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B243"/>
+  <dimension ref="A1:B250"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -945,135 +943,135 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>43467</v>
+        <v>43465</v>
       </c>
       <c r="B6" s="5">
-        <v>3.746</v>
+        <v>3.7480000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>43468</v>
+        <v>43467</v>
       </c>
       <c r="B7" s="5">
-        <v>3.742</v>
+        <v>3.746</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>43469</v>
+        <v>43468</v>
       </c>
       <c r="B8" s="5">
-        <v>3.72</v>
+        <v>3.742</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>43472</v>
+        <v>43469</v>
       </c>
       <c r="B9" s="5">
-        <v>3.694</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <v>43473</v>
+        <v>43472</v>
       </c>
       <c r="B10" s="5">
-        <v>3.6989999999999998</v>
+        <v>3.694</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>43474</v>
+        <v>43473</v>
       </c>
       <c r="B11" s="5">
-        <v>3.6819999999999999</v>
+        <v>3.6989999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>43475</v>
+        <v>43474</v>
       </c>
       <c r="B12" s="5">
-        <v>3.6640000000000001</v>
+        <v>3.6819999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>43476</v>
+        <v>43475</v>
       </c>
       <c r="B13" s="5">
-        <v>3.673</v>
+        <v>3.6640000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <v>43479</v>
+        <v>43476</v>
       </c>
       <c r="B14" s="5">
-        <v>3.657</v>
+        <v>3.673</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <v>43480</v>
+        <v>43479</v>
       </c>
       <c r="B15" s="5">
-        <v>3.67</v>
+        <v>3.657</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <v>43481</v>
+        <v>43480</v>
       </c>
       <c r="B16" s="5">
-        <v>3.6779999999999999</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
-        <v>43482</v>
+        <v>43481</v>
       </c>
       <c r="B17" s="5">
-        <v>3.6880000000000002</v>
+        <v>3.6779999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
-        <v>43483</v>
+        <v>43482</v>
       </c>
       <c r="B18" s="5">
-        <v>3.6920000000000002</v>
+        <v>3.6880000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
-        <v>43486</v>
+        <v>43483</v>
       </c>
       <c r="B19" s="5">
-        <v>3.698</v>
+        <v>3.6920000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
-        <v>43487</v>
+        <v>43486</v>
       </c>
       <c r="B20" s="5">
-        <v>3.69</v>
+        <v>3.698</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
-        <v>43488</v>
+        <v>43487</v>
       </c>
       <c r="B21" s="5">
-        <v>3.6829999999999998</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
-        <v>43489</v>
+        <v>43488</v>
       </c>
       <c r="B22" s="5">
         <v>3.6829999999999998</v>
@@ -1081,103 +1079,103 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
-        <v>43490</v>
+        <v>43489</v>
       </c>
       <c r="B23" s="5">
-        <v>3.6850000000000001</v>
+        <v>3.6829999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
-        <v>43493</v>
+        <v>43490</v>
       </c>
       <c r="B24" s="5">
-        <v>3.68</v>
+        <v>3.6850000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
-        <v>43494</v>
+        <v>43493</v>
       </c>
       <c r="B25" s="5">
-        <v>3.6779999999999999</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
-        <v>43495</v>
+        <v>43494</v>
       </c>
       <c r="B26" s="5">
-        <v>3.6709999999999998</v>
+        <v>3.6779999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
-        <v>43496</v>
+        <v>43495</v>
       </c>
       <c r="B27" s="5">
-        <v>3.6419999999999999</v>
+        <v>3.6709999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
-        <v>43497</v>
+        <v>43496</v>
       </c>
       <c r="B28" s="5">
-        <v>3.633</v>
+        <v>3.6419999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
-        <v>43500</v>
+        <v>43497</v>
       </c>
       <c r="B29" s="5">
-        <v>3.6269999999999998</v>
+        <v>3.633</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
-        <v>43501</v>
+        <v>43500</v>
       </c>
       <c r="B30" s="5">
-        <v>3.61</v>
+        <v>3.6269999999999998</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
-        <v>43502</v>
+        <v>43501</v>
       </c>
       <c r="B31" s="5">
-        <v>3.6190000000000002</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
-        <v>43503</v>
+        <v>43502</v>
       </c>
       <c r="B32" s="5">
-        <v>3.6269999999999998</v>
+        <v>3.6190000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
-        <v>43504</v>
+        <v>43503</v>
       </c>
       <c r="B33" s="5">
-        <v>3.6339999999999999</v>
+        <v>3.6269999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
-        <v>43507</v>
+        <v>43504</v>
       </c>
       <c r="B34" s="5">
-        <v>3.6429999999999998</v>
+        <v>3.6339999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
-        <v>43508</v>
+        <v>43507</v>
       </c>
       <c r="B35" s="5">
         <v>3.6429999999999998</v>
@@ -1185,55 +1183,55 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
-        <v>43509</v>
+        <v>43508</v>
       </c>
       <c r="B36" s="5">
-        <v>3.637</v>
+        <v>3.6429999999999998</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
-        <v>43510</v>
+        <v>43509</v>
       </c>
       <c r="B37" s="5">
-        <v>3.6619999999999999</v>
+        <v>3.637</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
-        <v>43511</v>
+        <v>43510</v>
       </c>
       <c r="B38" s="5">
-        <v>3.641</v>
+        <v>3.6619999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
-        <v>43514</v>
+        <v>43511</v>
       </c>
       <c r="B39" s="5">
-        <v>3.62</v>
+        <v>3.641</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
-        <v>43515</v>
+        <v>43514</v>
       </c>
       <c r="B40" s="5">
-        <v>3.6309999999999998</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
-        <v>43516</v>
+        <v>43515</v>
       </c>
       <c r="B41" s="5">
-        <v>3.617</v>
+        <v>3.6309999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
-        <v>43517</v>
+        <v>43516</v>
       </c>
       <c r="B42" s="5">
         <v>3.617</v>
@@ -1241,79 +1239,79 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
-        <v>43518</v>
+        <v>43517</v>
       </c>
       <c r="B43" s="5">
-        <v>3.613</v>
+        <v>3.617</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
-        <v>43521</v>
+        <v>43518</v>
       </c>
       <c r="B44" s="5">
-        <v>3.605</v>
+        <v>3.613</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
-        <v>43522</v>
+        <v>43521</v>
       </c>
       <c r="B45" s="5">
-        <v>3.6240000000000001</v>
+        <v>3.605</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
-        <v>43523</v>
+        <v>43522</v>
       </c>
       <c r="B46" s="5">
-        <v>3.6190000000000002</v>
+        <v>3.6240000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
-        <v>43524</v>
+        <v>43523</v>
       </c>
       <c r="B47" s="5">
-        <v>3.6040000000000001</v>
+        <v>3.6190000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
-        <v>43525</v>
+        <v>43524</v>
       </c>
       <c r="B48" s="5">
-        <v>3.6240000000000001</v>
+        <v>3.6040000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
-        <v>43528</v>
+        <v>43525</v>
       </c>
       <c r="B49" s="5">
-        <v>3.625</v>
+        <v>3.6240000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
-        <v>43529</v>
+        <v>43528</v>
       </c>
       <c r="B50" s="5">
-        <v>3.6190000000000002</v>
+        <v>3.625</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
-        <v>43530</v>
+        <v>43529</v>
       </c>
       <c r="B51" s="5">
-        <v>3.6160000000000001</v>
+        <v>3.6190000000000002</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
-        <v>43531</v>
+        <v>43530</v>
       </c>
       <c r="B52" s="5">
         <v>3.6160000000000001</v>
@@ -1321,463 +1319,463 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
-        <v>43532</v>
+        <v>43531</v>
       </c>
       <c r="B53" s="5">
-        <v>3.6309999999999998</v>
+        <v>3.6160000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
-        <v>43535</v>
+        <v>43532</v>
       </c>
       <c r="B54" s="5">
-        <v>3.621</v>
+        <v>3.6309999999999998</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
-        <v>43536</v>
+        <v>43535</v>
       </c>
       <c r="B55" s="5">
-        <v>3.6230000000000002</v>
+        <v>3.621</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
-        <v>43537</v>
+        <v>43536</v>
       </c>
       <c r="B56" s="5">
-        <v>3.617</v>
+        <v>3.6230000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
-        <v>43538</v>
+        <v>43537</v>
       </c>
       <c r="B57" s="5">
-        <v>3.6</v>
+        <v>3.617</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
-        <v>43539</v>
+        <v>43538</v>
       </c>
       <c r="B58" s="5">
-        <v>3.6040000000000001</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
-        <v>43542</v>
+        <v>43539</v>
       </c>
       <c r="B59" s="5">
-        <v>3.601</v>
+        <v>3.6040000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
-        <v>43543</v>
+        <v>43542</v>
       </c>
       <c r="B60" s="5">
-        <v>3.6059999999999999</v>
+        <v>3.601</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
-        <v>43544</v>
+        <v>43543</v>
       </c>
       <c r="B61" s="5">
-        <v>3.6080000000000001</v>
+        <v>3.6059999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
-        <v>43549</v>
+        <v>43544</v>
       </c>
       <c r="B62" s="5">
-        <v>3.6230000000000002</v>
+        <v>3.6080000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
-        <v>43550</v>
+        <v>43549</v>
       </c>
       <c r="B63" s="5">
-        <v>3.617</v>
+        <v>3.6230000000000002</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
-        <v>43551</v>
+        <v>43550</v>
       </c>
       <c r="B64" s="5">
-        <v>3.6349999999999998</v>
+        <v>3.617</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
-        <v>43552</v>
+        <v>43551</v>
       </c>
       <c r="B65" s="5">
-        <v>3.6360000000000001</v>
+        <v>3.6349999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
-        <v>43553</v>
+        <v>43552</v>
       </c>
       <c r="B66" s="5">
-        <v>3.6320000000000001</v>
+        <v>3.6360000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
-        <v>43556</v>
+        <v>43553</v>
       </c>
       <c r="B67" s="5">
-        <v>3.6259999999999999</v>
+        <v>3.6320000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
-        <v>43557</v>
+        <v>43556</v>
       </c>
       <c r="B68" s="5">
-        <v>3.6240000000000001</v>
+        <v>3.6259999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
-        <v>43558</v>
+        <v>43557</v>
       </c>
       <c r="B69" s="5">
-        <v>3.6</v>
+        <v>3.6240000000000001</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
-        <v>43559</v>
+        <v>43558</v>
       </c>
       <c r="B70" s="5">
-        <v>3.6030000000000002</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
-        <v>43560</v>
+        <v>43559</v>
       </c>
       <c r="B71" s="5">
-        <v>3.5870000000000002</v>
+        <v>3.6030000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
-        <v>43563</v>
+        <v>43560</v>
       </c>
       <c r="B72" s="5">
-        <v>3.58</v>
+        <v>3.5870000000000002</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
-        <v>43565</v>
+        <v>43563</v>
       </c>
       <c r="B73" s="5">
-        <v>3.5779999999999998</v>
+        <v>3.58</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
-        <v>43566</v>
+        <v>43565</v>
       </c>
       <c r="B74" s="5">
-        <v>3.5830000000000002</v>
+        <v>3.5779999999999998</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
-        <v>43567</v>
+        <v>43566</v>
       </c>
       <c r="B75" s="5">
-        <v>3.5779999999999998</v>
+        <v>3.5830000000000002</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
-        <v>43570</v>
+        <v>43567</v>
       </c>
       <c r="B76" s="5">
-        <v>3.5609999999999999</v>
+        <v>3.5779999999999998</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
-        <v>43571</v>
+        <v>43570</v>
       </c>
       <c r="B77" s="5">
-        <v>3.5579999999999998</v>
+        <v>3.5609999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
-        <v>43572</v>
+        <v>43571</v>
       </c>
       <c r="B78" s="5">
-        <v>3.5750000000000002</v>
+        <v>3.5579999999999998</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
-        <v>43573</v>
+        <v>43572</v>
       </c>
       <c r="B79" s="5">
-        <v>3.589</v>
+        <v>3.5750000000000002</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
-        <v>43578</v>
+        <v>43573</v>
       </c>
       <c r="B80" s="5">
-        <v>3.593</v>
+        <v>3.589</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
-        <v>43579</v>
+        <v>43578</v>
       </c>
       <c r="B81" s="5">
-        <v>3.6139999999999999</v>
+        <v>3.593</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
-        <v>43580</v>
+        <v>43579</v>
       </c>
       <c r="B82" s="5">
-        <v>3.6280000000000001</v>
+        <v>3.6139999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
-        <v>43584</v>
+        <v>43580</v>
       </c>
       <c r="B83" s="5">
-        <v>3.6179999999999999</v>
+        <v>3.6280000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
-        <v>43585</v>
+        <v>43584</v>
       </c>
       <c r="B84" s="5">
-        <v>3.6080000000000001</v>
+        <v>3.6179999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
-        <v>43586</v>
+        <v>43585</v>
       </c>
       <c r="B85" s="5">
-        <v>3.5859999999999999</v>
+        <v>3.6080000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
-        <v>43587</v>
+        <v>43586</v>
       </c>
       <c r="B86" s="5">
-        <v>3.5979999999999999</v>
+        <v>3.5859999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
-        <v>43588</v>
+        <v>43587</v>
       </c>
       <c r="B87" s="5">
-        <v>3.601</v>
+        <v>3.5979999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
-        <v>43591</v>
+        <v>43588</v>
       </c>
       <c r="B88" s="5">
-        <v>3.5910000000000002</v>
+        <v>3.601</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
-        <v>43592</v>
+        <v>43591</v>
       </c>
       <c r="B89" s="5">
-        <v>3.585</v>
+        <v>3.5910000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
-        <v>43593</v>
+        <v>43592</v>
       </c>
       <c r="B90" s="5">
-        <v>3.5840000000000001</v>
+        <v>3.585</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
-        <v>43595</v>
+        <v>43593</v>
       </c>
       <c r="B91" s="5">
-        <v>3.5670000000000002</v>
+        <v>3.5840000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
-        <v>43598</v>
+        <v>43595</v>
       </c>
       <c r="B92" s="5">
-        <v>3.5680000000000001</v>
+        <v>3.5670000000000002</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
-        <v>43599</v>
+        <v>43598</v>
       </c>
       <c r="B93" s="5">
-        <v>3.577</v>
+        <v>3.5680000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
-        <v>43600</v>
+        <v>43599</v>
       </c>
       <c r="B94" s="5">
-        <v>3.5710000000000002</v>
+        <v>3.577</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
-        <v>43601</v>
+        <v>43600</v>
       </c>
       <c r="B95" s="5">
-        <v>3.5680000000000001</v>
+        <v>3.5710000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
-        <v>43602</v>
+        <v>43601</v>
       </c>
       <c r="B96" s="5">
-        <v>3.5750000000000002</v>
+        <v>3.5680000000000001</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
-        <v>43605</v>
+        <v>43602</v>
       </c>
       <c r="B97" s="5">
-        <v>3.573</v>
+        <v>3.5750000000000002</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
-        <v>43606</v>
+        <v>43605</v>
       </c>
       <c r="B98" s="5">
-        <v>3.5979999999999999</v>
+        <v>3.573</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
-        <v>43607</v>
+        <v>43606</v>
       </c>
       <c r="B99" s="5">
-        <v>3.6110000000000002</v>
+        <v>3.5979999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
-        <v>43608</v>
+        <v>43607</v>
       </c>
       <c r="B100" s="5">
-        <v>3.6150000000000002</v>
+        <v>3.6110000000000002</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
-        <v>43609</v>
+        <v>43608</v>
       </c>
       <c r="B101" s="5">
-        <v>3.605</v>
+        <v>3.6150000000000002</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
-        <v>43613</v>
+        <v>43609</v>
       </c>
       <c r="B102" s="5">
-        <v>3.6139999999999999</v>
+        <v>3.605</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
-        <v>43614</v>
+        <v>43613</v>
       </c>
       <c r="B103" s="5">
-        <v>3.617</v>
+        <v>3.6139999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
-        <v>43615</v>
+        <v>43614</v>
       </c>
       <c r="B104" s="5">
-        <v>3.62</v>
+        <v>3.617</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
-        <v>43616</v>
+        <v>43615</v>
       </c>
       <c r="B105" s="5">
-        <v>3.6339999999999999</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
-        <v>43619</v>
+        <v>43616</v>
       </c>
       <c r="B106" s="5">
-        <v>3.633</v>
+        <v>3.6339999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
-        <v>43620</v>
+        <v>43619</v>
       </c>
       <c r="B107" s="5">
-        <v>3.6120000000000001</v>
+        <v>3.633</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
-        <v>43621</v>
+        <v>43620</v>
       </c>
       <c r="B108" s="5">
-        <v>3.61</v>
+        <v>3.6120000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
-        <v>43622</v>
+        <v>43621</v>
       </c>
       <c r="B109" s="5">
-        <v>3.601</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
-        <v>43623</v>
+        <v>43622</v>
       </c>
       <c r="B110" s="5">
         <v>3.601</v>
@@ -1785,335 +1783,335 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
-        <v>43626</v>
+        <v>43623</v>
       </c>
       <c r="B111" s="5">
-        <v>3.585</v>
+        <v>3.601</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
-        <v>43627</v>
+        <v>43626</v>
       </c>
       <c r="B112" s="5">
-        <v>3.581</v>
+        <v>3.585</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
-        <v>43628</v>
+        <v>43627</v>
       </c>
       <c r="B113" s="5">
-        <v>3.5819999999999999</v>
+        <v>3.581</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
-        <v>43629</v>
+        <v>43628</v>
       </c>
       <c r="B114" s="5">
-        <v>3.5920000000000001</v>
+        <v>3.5819999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
-        <v>43630</v>
+        <v>43629</v>
       </c>
       <c r="B115" s="5">
-        <v>3.6</v>
+        <v>3.5920000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
-        <v>43633</v>
+        <v>43630</v>
       </c>
       <c r="B116" s="5">
-        <v>3.61</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
-        <v>43634</v>
+        <v>43633</v>
       </c>
       <c r="B117" s="5">
-        <v>3.6120000000000001</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
-        <v>43635</v>
+        <v>43634</v>
       </c>
       <c r="B118" s="5">
-        <v>3.609</v>
+        <v>3.6120000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
-        <v>43636</v>
+        <v>43635</v>
       </c>
       <c r="B119" s="5">
-        <v>3.5790000000000002</v>
+        <v>3.609</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
-        <v>43637</v>
+        <v>43636</v>
       </c>
       <c r="B120" s="5">
-        <v>3.5939999999999999</v>
+        <v>3.5790000000000002</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
-        <v>43640</v>
+        <v>43637</v>
       </c>
       <c r="B121" s="5">
-        <v>3.6040000000000001</v>
+        <v>3.5939999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
-        <v>43641</v>
+        <v>43640</v>
       </c>
       <c r="B122" s="5">
-        <v>3.6019999999999999</v>
+        <v>3.6040000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
-        <v>43642</v>
+        <v>43641</v>
       </c>
       <c r="B123" s="5">
-        <v>3.5910000000000002</v>
+        <v>3.6019999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
-        <v>43643</v>
+        <v>43642</v>
       </c>
       <c r="B124" s="5">
-        <v>3.5819999999999999</v>
+        <v>3.5910000000000002</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
-        <v>43644</v>
+        <v>43643</v>
       </c>
       <c r="B125" s="5">
-        <v>3.5659999999999998</v>
+        <v>3.5819999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
-        <v>43647</v>
+        <v>43644</v>
       </c>
       <c r="B126" s="5">
-        <v>3.5739999999999998</v>
+        <v>3.5659999999999998</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
-        <v>43648</v>
+        <v>43647</v>
       </c>
       <c r="B127" s="5">
-        <v>3.5750000000000002</v>
+        <v>3.5739999999999998</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
-        <v>43649</v>
+        <v>43648</v>
       </c>
       <c r="B128" s="5">
-        <v>3.5720000000000001</v>
+        <v>3.5750000000000002</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
-        <v>43650</v>
+        <v>43649</v>
       </c>
       <c r="B129" s="5">
-        <v>3.5670000000000002</v>
+        <v>3.5720000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
-        <v>43651</v>
+        <v>43650</v>
       </c>
       <c r="B130" s="5">
-        <v>3.5619999999999998</v>
+        <v>3.5670000000000002</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
-        <v>43654</v>
+        <v>43651</v>
       </c>
       <c r="B131" s="5">
-        <v>3.573</v>
+        <v>3.5619999999999998</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
-        <v>43655</v>
+        <v>43654</v>
       </c>
       <c r="B132" s="5">
-        <v>3.5680000000000001</v>
+        <v>3.573</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
-        <v>43656</v>
+        <v>43655</v>
       </c>
       <c r="B133" s="5">
-        <v>3.573</v>
+        <v>3.5680000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
-        <v>43657</v>
+        <v>43656</v>
       </c>
       <c r="B134" s="5">
-        <v>3.5470000000000002</v>
+        <v>3.573</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
-        <v>43658</v>
+        <v>43657</v>
       </c>
       <c r="B135" s="5">
-        <v>3.5510000000000002</v>
+        <v>3.5470000000000002</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
-        <v>43661</v>
+        <v>43658</v>
       </c>
       <c r="B136" s="5">
-        <v>3.5390000000000001</v>
+        <v>3.5510000000000002</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
-        <v>43662</v>
+        <v>43661</v>
       </c>
       <c r="B137" s="5">
-        <v>3.5419999999999998</v>
+        <v>3.5390000000000001</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
-        <v>43663</v>
+        <v>43662</v>
       </c>
       <c r="B138" s="5">
-        <v>3.5409999999999999</v>
+        <v>3.5419999999999998</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
-        <v>43664</v>
+        <v>43663</v>
       </c>
       <c r="B139" s="5">
-        <v>3.5430000000000001</v>
+        <v>3.5409999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
-        <v>43665</v>
+        <v>43664</v>
       </c>
       <c r="B140" s="5">
-        <v>3.5350000000000001</v>
+        <v>3.5430000000000001</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
-        <v>43668</v>
+        <v>43665</v>
       </c>
       <c r="B141" s="5">
-        <v>3.5339999999999998</v>
+        <v>3.5350000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
-        <v>43669</v>
+        <v>43668</v>
       </c>
       <c r="B142" s="5">
-        <v>3.5369999999999999</v>
+        <v>3.5339999999999998</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
-        <v>43670</v>
+        <v>43669</v>
       </c>
       <c r="B143" s="5">
-        <v>3.5209999999999999</v>
+        <v>3.5369999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
-        <v>43671</v>
+        <v>43670</v>
       </c>
       <c r="B144" s="5">
-        <v>3.5230000000000001</v>
+        <v>3.5209999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
-        <v>43672</v>
+        <v>43671</v>
       </c>
       <c r="B145" s="5">
-        <v>3.5259999999999998</v>
+        <v>3.5230000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="4">
-        <v>43675</v>
+        <v>43672</v>
       </c>
       <c r="B146" s="5">
-        <v>3.5249999999999999</v>
+        <v>3.5259999999999998</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="4">
-        <v>43676</v>
+        <v>43675</v>
       </c>
       <c r="B147" s="5">
-        <v>3.5</v>
+        <v>3.5249999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="4">
-        <v>43677</v>
+        <v>43676</v>
       </c>
       <c r="B148" s="5">
-        <v>3.4990000000000001</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="4">
-        <v>43678</v>
+        <v>43677</v>
       </c>
       <c r="B149" s="5">
-        <v>3.524</v>
+        <v>3.4990000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="4">
-        <v>43679</v>
+        <v>43678</v>
       </c>
       <c r="B150" s="5">
-        <v>3.5089999999999999</v>
+        <v>3.524</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="4">
-        <v>43682</v>
+        <v>43679</v>
       </c>
       <c r="B151" s="5">
-        <v>3.4940000000000002</v>
+        <v>3.5089999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="4">
-        <v>43683</v>
+        <v>43682</v>
       </c>
       <c r="B152" s="5">
         <v>3.4940000000000002</v>
@@ -2121,599 +2119,599 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="4">
-        <v>43684</v>
+        <v>43683</v>
       </c>
       <c r="B153" s="5">
-        <v>3.4870000000000001</v>
+        <v>3.4940000000000002</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="4">
-        <v>43685</v>
+        <v>43684</v>
       </c>
       <c r="B154" s="5">
-        <v>3.4830000000000001</v>
+        <v>3.4870000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="4">
-        <v>43686</v>
+        <v>43685</v>
       </c>
       <c r="B155" s="5">
-        <v>3.4790000000000001</v>
+        <v>3.4830000000000001</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="4">
-        <v>43689</v>
+        <v>43686</v>
       </c>
       <c r="B156" s="5">
-        <v>3.484</v>
+        <v>3.4790000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="4">
-        <v>43690</v>
+        <v>43689</v>
       </c>
       <c r="B157" s="5">
-        <v>3.4929999999999999</v>
+        <v>3.484</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="4">
-        <v>43691</v>
+        <v>43690</v>
       </c>
       <c r="B158" s="5">
-        <v>3.4889999999999999</v>
+        <v>3.4929999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="4">
-        <v>43692</v>
+        <v>43691</v>
       </c>
       <c r="B159" s="5">
-        <v>3.5190000000000001</v>
+        <v>3.4889999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="4">
-        <v>43693</v>
+        <v>43692</v>
       </c>
       <c r="B160" s="5">
-        <v>3.5409999999999999</v>
+        <v>3.5190000000000001</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="4">
-        <v>43696</v>
+        <v>43693</v>
       </c>
       <c r="B161" s="5">
-        <v>3.5449999999999999</v>
+        <v>3.5409999999999999</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="4">
-        <v>43697</v>
+        <v>43696</v>
       </c>
       <c r="B162" s="5">
-        <v>3.524</v>
+        <v>3.5449999999999999</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="4">
-        <v>43698</v>
+        <v>43697</v>
       </c>
       <c r="B163" s="5">
-        <v>3.5270000000000001</v>
+        <v>3.524</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="4">
-        <v>43699</v>
+        <v>43698</v>
       </c>
       <c r="B164" s="5">
-        <v>3.5249999999999999</v>
+        <v>3.5270000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="4">
-        <v>43700</v>
+        <v>43699</v>
       </c>
       <c r="B165" s="5">
-        <v>3.5110000000000001</v>
+        <v>3.5249999999999999</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="4">
-        <v>43703</v>
+        <v>43700</v>
       </c>
       <c r="B166" s="5">
-        <v>3.5190000000000001</v>
+        <v>3.5110000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="4">
-        <v>43704</v>
+        <v>43703</v>
       </c>
       <c r="B167" s="5">
-        <v>3.52</v>
+        <v>3.5190000000000001</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="4">
-        <v>43705</v>
+        <v>43704</v>
       </c>
       <c r="B168" s="5">
-        <v>3.524</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="4">
-        <v>43706</v>
+        <v>43705</v>
       </c>
       <c r="B169" s="5">
-        <v>3.5209999999999999</v>
+        <v>3.524</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="4">
-        <v>43707</v>
+        <v>43706</v>
       </c>
       <c r="B170" s="5">
-        <v>3.5350000000000001</v>
+        <v>3.5209999999999999</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="4">
-        <v>43710</v>
+        <v>43707</v>
       </c>
       <c r="B171" s="5">
-        <v>3.5379999999999998</v>
+        <v>3.5350000000000001</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="4">
-        <v>43711</v>
+        <v>43710</v>
       </c>
       <c r="B172" s="5">
-        <v>3.5489999999999999</v>
+        <v>3.5379999999999998</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="4">
-        <v>43712</v>
+        <v>43711</v>
       </c>
       <c r="B173" s="5">
-        <v>3.5270000000000001</v>
+        <v>3.5489999999999999</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="4">
-        <v>43713</v>
+        <v>43712</v>
       </c>
       <c r="B174" s="5">
-        <v>3.512</v>
+        <v>3.5270000000000001</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="4">
-        <v>43714</v>
+        <v>43713</v>
       </c>
       <c r="B175" s="5">
-        <v>3.5169999999999999</v>
+        <v>3.512</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="4">
-        <v>43717</v>
+        <v>43714</v>
       </c>
       <c r="B176" s="5">
-        <v>3.5270000000000001</v>
+        <v>3.5169999999999999</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="4">
-        <v>43718</v>
+        <v>43717</v>
       </c>
       <c r="B177" s="5">
-        <v>3.5379999999999998</v>
+        <v>3.5270000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="4">
-        <v>43719</v>
+        <v>43718</v>
       </c>
       <c r="B178" s="5">
-        <v>3.544</v>
+        <v>3.5379999999999998</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="4">
-        <v>43720</v>
+        <v>43719</v>
       </c>
       <c r="B179" s="5">
-        <v>3.5409999999999999</v>
+        <v>3.544</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="4">
-        <v>43721</v>
+        <v>43720</v>
       </c>
       <c r="B180" s="5">
-        <v>3.5270000000000001</v>
+        <v>3.5409999999999999</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="4">
-        <v>43724</v>
+        <v>43721</v>
       </c>
       <c r="B181" s="5">
-        <v>3.5379999999999998</v>
+        <v>3.5270000000000001</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="4">
-        <v>43726</v>
+        <v>43724</v>
       </c>
       <c r="B182" s="5">
-        <v>3.5409999999999999</v>
+        <v>3.5379999999999998</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="4">
-        <v>43727</v>
+        <v>43726</v>
       </c>
       <c r="B183" s="5">
-        <v>3.5209999999999999</v>
+        <v>3.5409999999999999</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="4">
-        <v>43728</v>
+        <v>43727</v>
       </c>
       <c r="B184" s="5">
-        <v>3.5129999999999999</v>
+        <v>3.5209999999999999</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="4">
-        <v>43731</v>
+        <v>43728</v>
       </c>
       <c r="B185" s="5">
-        <v>3.5169999999999999</v>
+        <v>3.5129999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="4">
-        <v>43732</v>
+        <v>43731</v>
       </c>
       <c r="B186" s="5">
-        <v>3.5070000000000001</v>
+        <v>3.5169999999999999</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="4">
-        <v>43733</v>
+        <v>43732</v>
       </c>
       <c r="B187" s="5">
-        <v>3.5009999999999999</v>
+        <v>3.5070000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="4">
-        <v>43734</v>
+        <v>43733</v>
       </c>
       <c r="B188" s="5">
-        <v>3.5169999999999999</v>
+        <v>3.5009999999999999</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="4">
-        <v>43735</v>
+        <v>43734</v>
       </c>
       <c r="B189" s="5">
-        <v>3.4820000000000002</v>
+        <v>3.5169999999999999</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="4">
-        <v>43740</v>
+        <v>43735</v>
       </c>
       <c r="B190" s="5">
-        <v>3.4849999999999999</v>
+        <v>3.4820000000000002</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="4">
-        <v>43741</v>
+        <v>43740</v>
       </c>
       <c r="B191" s="5">
-        <v>3.4929999999999999</v>
+        <v>3.4849999999999999</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="4">
-        <v>43742</v>
+        <v>43741</v>
       </c>
       <c r="B192" s="5">
-        <v>3.4809999999999999</v>
+        <v>3.4929999999999999</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="4">
-        <v>43745</v>
+        <v>43742</v>
       </c>
       <c r="B193" s="5">
-        <v>3.4929999999999999</v>
+        <v>3.4809999999999999</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="4">
-        <v>43748</v>
+        <v>43745</v>
       </c>
       <c r="B194" s="5">
-        <v>3.504</v>
+        <v>3.4929999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="4">
-        <v>43749</v>
+        <v>43748</v>
       </c>
       <c r="B195" s="5">
-        <v>3.51</v>
+        <v>3.504</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="4">
-        <v>43753</v>
+        <v>43749</v>
       </c>
       <c r="B196" s="5">
-        <v>3.5129999999999999</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="4">
-        <v>43754</v>
+        <v>43753</v>
       </c>
       <c r="B197" s="5">
-        <v>3.536</v>
+        <v>3.5129999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="4">
-        <v>43755</v>
+        <v>43754</v>
       </c>
       <c r="B198" s="5">
-        <v>3.5449999999999999</v>
+        <v>3.536</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="4">
-        <v>43756</v>
+        <v>43755</v>
       </c>
       <c r="B199" s="5">
-        <v>3.5329999999999999</v>
+        <v>3.5449999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="4">
-        <v>43760</v>
+        <v>43756</v>
       </c>
       <c r="B200" s="5">
-        <v>3.5369999999999999</v>
+        <v>3.5329999999999999</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="4">
-        <v>43761</v>
+        <v>43760</v>
       </c>
       <c r="B201" s="5">
-        <v>3.5379999999999998</v>
+        <v>3.5369999999999999</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="4">
-        <v>43762</v>
+        <v>43761</v>
       </c>
       <c r="B202" s="5">
-        <v>3.5230000000000001</v>
+        <v>3.5379999999999998</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="4">
-        <v>43763</v>
+        <v>43762</v>
       </c>
       <c r="B203" s="5">
-        <v>3.5390000000000001</v>
+        <v>3.5230000000000001</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="4">
-        <v>43766</v>
+        <v>43763</v>
       </c>
       <c r="B204" s="5">
-        <v>3.5289999999999999</v>
+        <v>3.5390000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="4">
-        <v>43767</v>
+        <v>43766</v>
       </c>
       <c r="B205" s="5">
-        <v>3.53</v>
+        <v>3.5289999999999999</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="4">
-        <v>43768</v>
+        <v>43767</v>
       </c>
       <c r="B206" s="5">
-        <v>3.528</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="4">
-        <v>43769</v>
+        <v>43768</v>
       </c>
       <c r="B207" s="5">
-        <v>3.5289999999999999</v>
+        <v>3.528</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="4">
-        <v>43770</v>
+        <v>43769</v>
       </c>
       <c r="B208" s="5">
-        <v>3.5209999999999999</v>
+        <v>3.5289999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="4">
-        <v>43773</v>
+        <v>43770</v>
       </c>
       <c r="B209" s="5">
-        <v>3.5219999999999998</v>
+        <v>3.5209999999999999</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="4">
-        <v>43774</v>
+        <v>43773</v>
       </c>
       <c r="B210" s="5">
-        <v>3.5009999999999999</v>
+        <v>3.5219999999999998</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="4">
-        <v>43775</v>
+        <v>43774</v>
       </c>
       <c r="B211" s="5">
-        <v>3.49</v>
+        <v>3.5009999999999999</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="4">
-        <v>43776</v>
+        <v>43775</v>
       </c>
       <c r="B212" s="5">
-        <v>3.4870000000000001</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="4">
-        <v>43777</v>
+        <v>43776</v>
       </c>
       <c r="B213" s="5">
-        <v>3.4950000000000001</v>
+        <v>3.4870000000000001</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="4">
-        <v>43780</v>
+        <v>43777</v>
       </c>
       <c r="B214" s="5">
-        <v>3.4990000000000001</v>
+        <v>3.4950000000000001</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="4">
-        <v>43781</v>
+        <v>43780</v>
       </c>
       <c r="B215" s="5">
-        <v>3.5110000000000001</v>
+        <v>3.4990000000000001</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="4">
-        <v>43782</v>
+        <v>43781</v>
       </c>
       <c r="B216" s="5">
-        <v>3.4950000000000001</v>
+        <v>3.5110000000000001</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="4">
-        <v>43783</v>
+        <v>43782</v>
       </c>
       <c r="B217" s="5">
-        <v>3.488</v>
+        <v>3.4950000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="4">
-        <v>43784</v>
+        <v>43783</v>
       </c>
       <c r="B218" s="5">
-        <v>3.4780000000000002</v>
+        <v>3.488</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="4">
-        <v>43787</v>
+        <v>43784</v>
       </c>
       <c r="B219" s="5">
-        <v>3.4630000000000001</v>
+        <v>3.4780000000000002</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="4">
-        <v>43788</v>
+        <v>43787</v>
       </c>
       <c r="B220" s="5">
-        <v>3.4569999999999999</v>
+        <v>3.4630000000000001</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="4">
-        <v>43789</v>
+        <v>43788</v>
       </c>
       <c r="B221" s="5">
-        <v>3.4710000000000001</v>
+        <v>3.4569999999999999</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="4">
-        <v>43790</v>
+        <v>43789</v>
       </c>
       <c r="B222" s="5">
-        <v>3.4550000000000001</v>
+        <v>3.4710000000000001</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="4">
-        <v>43791</v>
+        <v>43790</v>
       </c>
       <c r="B223" s="5">
-        <v>3.46</v>
+        <v>3.4550000000000001</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="4">
-        <v>43794</v>
+        <v>43791</v>
       </c>
       <c r="B224" s="5">
-        <v>3.4609999999999999</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="4">
-        <v>43795</v>
+        <v>43794</v>
       </c>
       <c r="B225" s="5">
-        <v>3.4630000000000001</v>
+        <v>3.4609999999999999</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="4">
-        <v>43796</v>
+        <v>43795</v>
       </c>
       <c r="B226" s="5">
-        <v>3.4710000000000001</v>
+        <v>3.4630000000000001</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="4">
-        <v>43797</v>
+        <v>43796</v>
       </c>
       <c r="B227" s="5">
         <v>3.4710000000000001</v>
@@ -2721,130 +2719,186 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="4">
-        <v>43798</v>
+        <v>43797</v>
       </c>
       <c r="B228" s="5">
-        <v>3.476</v>
+        <v>3.4710000000000001</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="4">
-        <v>43801</v>
+        <v>43798</v>
       </c>
       <c r="B229" s="5">
-        <v>3.4740000000000002</v>
+        <v>3.476</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="4">
-        <v>43802</v>
+        <v>43801</v>
       </c>
       <c r="B230" s="5">
-        <v>3.4809999999999999</v>
+        <v>3.4740000000000002</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="4">
-        <v>43803</v>
+        <v>43802</v>
       </c>
       <c r="B231" s="5">
-        <v>3.4710000000000001</v>
+        <v>3.4809999999999999</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="4">
-        <v>43804</v>
+        <v>43803</v>
       </c>
       <c r="B232" s="5">
-        <v>3.4670000000000001</v>
+        <v>3.4710000000000001</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="4">
-        <v>43805</v>
+        <v>43804</v>
       </c>
       <c r="B233" s="5">
-        <v>3.4630000000000001</v>
+        <v>3.4670000000000001</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="4">
-        <v>43808</v>
+        <v>43805</v>
       </c>
       <c r="B234" s="5">
-        <v>3.4710000000000001</v>
+        <v>3.4630000000000001</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="4">
-        <v>43809</v>
+        <v>43808</v>
       </c>
       <c r="B235" s="5">
-        <v>3.4649999999999999</v>
+        <v>3.4710000000000001</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="4">
-        <v>43810</v>
+        <v>43809</v>
       </c>
       <c r="B236" s="5">
-        <v>3.4769999999999999</v>
+        <v>3.4649999999999999</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="4">
-        <v>43811</v>
+        <v>43810</v>
       </c>
       <c r="B237" s="5">
-        <v>3.4809999999999999</v>
+        <v>3.4769999999999999</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="4">
-        <v>43812</v>
+        <v>43811</v>
       </c>
       <c r="B238" s="5">
-        <v>3.476</v>
+        <v>3.4809999999999999</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="4">
-        <v>43815</v>
+        <v>43812</v>
       </c>
       <c r="B239" s="5">
-        <v>3.4980000000000002</v>
+        <v>3.476</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="4">
-        <v>43816</v>
+        <v>43815</v>
       </c>
       <c r="B240" s="5">
-        <v>3.492</v>
+        <v>3.4980000000000002</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="4">
-        <v>43817</v>
+        <v>43816</v>
       </c>
       <c r="B241" s="5">
-        <v>3.5009999999999999</v>
+        <v>3.492</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="4">
-        <v>43818</v>
+        <v>43817</v>
       </c>
       <c r="B242" s="5">
-        <v>3.4929999999999999</v>
+        <v>3.5009999999999999</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="4">
+        <v>43818</v>
+      </c>
+      <c r="B243" s="5">
+        <v>3.4929999999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="4">
         <v>43819</v>
       </c>
-      <c r="B243" s="5">
+      <c r="B244" s="5">
         <v>3.4769999999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="4">
+        <v>43822</v>
+      </c>
+      <c r="B245" s="5">
+        <v>3.472</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="4">
+        <v>43823</v>
+      </c>
+      <c r="B246" s="5">
+        <v>3.4660000000000002</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="4">
+        <v>43825</v>
+      </c>
+      <c r="B247" s="5">
+        <v>3.472</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="4">
+        <v>43826</v>
+      </c>
+      <c r="B248" s="5">
+        <v>3.468</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="4">
+        <v>43829</v>
+      </c>
+      <c r="B249" s="5">
+        <v>3.4630000000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="4">
+        <v>43830</v>
+      </c>
+      <c r="B250" s="5">
+        <v>3.456</v>
       </c>
     </row>
   </sheetData>

--- a/ExchangeRates.xlsx
+++ b/ExchangeRates.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Desktop\finance\tax_calc\tax\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\python\tax\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE422B87-B6FC-48B3-996B-5C8945AB0601}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="105"/>
+    <workbookView xWindow="29940" yWindow="1260" windowWidth="14400" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="_tmp_exchanges" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
   <si>
     <t>בנק ישראל - שערים יציגים</t>
   </si>
   <si>
-    <t>טווח תאריכים : 30/12/2018 - 31/12/2019</t>
+    <t>טווח תאריכים : 30/12/2018 - 31/12/2020</t>
   </si>
   <si>
     <t>אם לא פורסם שער יציג ליום המבוקש, מוצג השער האחרון שפורסם לפניו</t>
@@ -34,12 +35,906 @@
   </si>
   <si>
     <t>דולר ארצות הברית</t>
+  </si>
+  <si>
+    <t>31/12/2018</t>
+  </si>
+  <si>
+    <t>14/01/2019</t>
+  </si>
+  <si>
+    <t>15/01/2019</t>
+  </si>
+  <si>
+    <t>16/01/2019</t>
+  </si>
+  <si>
+    <t>17/01/2019</t>
+  </si>
+  <si>
+    <t>18/01/2019</t>
+  </si>
+  <si>
+    <t>21/01/2019</t>
+  </si>
+  <si>
+    <t>22/01/2019</t>
+  </si>
+  <si>
+    <t>23/01/2019</t>
+  </si>
+  <si>
+    <t>24/01/2019</t>
+  </si>
+  <si>
+    <t>25/01/2019</t>
+  </si>
+  <si>
+    <t>28/01/2019</t>
+  </si>
+  <si>
+    <t>29/01/2019</t>
+  </si>
+  <si>
+    <t>30/01/2019</t>
+  </si>
+  <si>
+    <t>31/01/2019</t>
+  </si>
+  <si>
+    <t>13/02/2019</t>
+  </si>
+  <si>
+    <t>14/02/2019</t>
+  </si>
+  <si>
+    <t>15/02/2019</t>
+  </si>
+  <si>
+    <t>18/02/2019</t>
+  </si>
+  <si>
+    <t>19/02/2019</t>
+  </si>
+  <si>
+    <t>20/02/2019</t>
+  </si>
+  <si>
+    <t>21/02/2019</t>
+  </si>
+  <si>
+    <t>22/02/2019</t>
+  </si>
+  <si>
+    <t>25/02/2019</t>
+  </si>
+  <si>
+    <t>26/02/2019</t>
+  </si>
+  <si>
+    <t>27/02/2019</t>
+  </si>
+  <si>
+    <t>28/02/2019</t>
+  </si>
+  <si>
+    <t>13/03/2019</t>
+  </si>
+  <si>
+    <t>14/03/2019</t>
+  </si>
+  <si>
+    <t>15/03/2019</t>
+  </si>
+  <si>
+    <t>18/03/2019</t>
+  </si>
+  <si>
+    <t>19/03/2019</t>
+  </si>
+  <si>
+    <t>20/03/2019</t>
+  </si>
+  <si>
+    <t>25/03/2019</t>
+  </si>
+  <si>
+    <t>26/03/2019</t>
+  </si>
+  <si>
+    <t>27/03/2019</t>
+  </si>
+  <si>
+    <t>28/03/2019</t>
+  </si>
+  <si>
+    <t>29/03/2019</t>
+  </si>
+  <si>
+    <t>15/04/2019</t>
+  </si>
+  <si>
+    <t>16/04/2019</t>
+  </si>
+  <si>
+    <t>17/04/2019</t>
+  </si>
+  <si>
+    <t>18/04/2019</t>
+  </si>
+  <si>
+    <t>23/04/2019</t>
+  </si>
+  <si>
+    <t>24/04/2019</t>
+  </si>
+  <si>
+    <t>25/04/2019</t>
+  </si>
+  <si>
+    <t>29/04/2019</t>
+  </si>
+  <si>
+    <t>30/04/2019</t>
+  </si>
+  <si>
+    <t>13/05/2019</t>
+  </si>
+  <si>
+    <t>14/05/2019</t>
+  </si>
+  <si>
+    <t>15/05/2019</t>
+  </si>
+  <si>
+    <t>16/05/2019</t>
+  </si>
+  <si>
+    <t>17/05/2019</t>
+  </si>
+  <si>
+    <t>20/05/2019</t>
+  </si>
+  <si>
+    <t>21/05/2019</t>
+  </si>
+  <si>
+    <t>22/05/2019</t>
+  </si>
+  <si>
+    <t>23/05/2019</t>
+  </si>
+  <si>
+    <t>24/05/2019</t>
+  </si>
+  <si>
+    <t>28/05/2019</t>
+  </si>
+  <si>
+    <t>29/05/2019</t>
+  </si>
+  <si>
+    <t>30/05/2019</t>
+  </si>
+  <si>
+    <t>31/05/2019</t>
+  </si>
+  <si>
+    <t>13/06/2019</t>
+  </si>
+  <si>
+    <t>14/06/2019</t>
+  </si>
+  <si>
+    <t>17/06/2019</t>
+  </si>
+  <si>
+    <t>18/06/2019</t>
+  </si>
+  <si>
+    <t>19/06/2019</t>
+  </si>
+  <si>
+    <t>20/06/2019</t>
+  </si>
+  <si>
+    <t>21/06/2019</t>
+  </si>
+  <si>
+    <t>24/06/2019</t>
+  </si>
+  <si>
+    <t>25/06/2019</t>
+  </si>
+  <si>
+    <t>26/06/2019</t>
+  </si>
+  <si>
+    <t>27/06/2019</t>
+  </si>
+  <si>
+    <t>28/06/2019</t>
+  </si>
+  <si>
+    <t>15/07/2019</t>
+  </si>
+  <si>
+    <t>16/07/2019</t>
+  </si>
+  <si>
+    <t>17/07/2019</t>
+  </si>
+  <si>
+    <t>18/07/2019</t>
+  </si>
+  <si>
+    <t>19/07/2019</t>
+  </si>
+  <si>
+    <t>22/07/2019</t>
+  </si>
+  <si>
+    <t>23/07/2019</t>
+  </si>
+  <si>
+    <t>24/07/2019</t>
+  </si>
+  <si>
+    <t>25/07/2019</t>
+  </si>
+  <si>
+    <t>26/07/2019</t>
+  </si>
+  <si>
+    <t>29/07/2019</t>
+  </si>
+  <si>
+    <t>30/07/2019</t>
+  </si>
+  <si>
+    <t>31/07/2019</t>
+  </si>
+  <si>
+    <t>13/08/2019</t>
+  </si>
+  <si>
+    <t>14/08/2019</t>
+  </si>
+  <si>
+    <t>15/08/2019</t>
+  </si>
+  <si>
+    <t>16/08/2019</t>
+  </si>
+  <si>
+    <t>19/08/2019</t>
+  </si>
+  <si>
+    <t>20/08/2019</t>
+  </si>
+  <si>
+    <t>21/08/2019</t>
+  </si>
+  <si>
+    <t>22/08/2019</t>
+  </si>
+  <si>
+    <t>23/08/2019</t>
+  </si>
+  <si>
+    <t>26/08/2019</t>
+  </si>
+  <si>
+    <t>27/08/2019</t>
+  </si>
+  <si>
+    <t>28/08/2019</t>
+  </si>
+  <si>
+    <t>29/08/2019</t>
+  </si>
+  <si>
+    <t>30/08/2019</t>
+  </si>
+  <si>
+    <t>13/09/2019</t>
+  </si>
+  <si>
+    <t>16/09/2019</t>
+  </si>
+  <si>
+    <t>18/09/2019</t>
+  </si>
+  <si>
+    <t>19/09/2019</t>
+  </si>
+  <si>
+    <t>20/09/2019</t>
+  </si>
+  <si>
+    <t>23/09/2019</t>
+  </si>
+  <si>
+    <t>24/09/2019</t>
+  </si>
+  <si>
+    <t>25/09/2019</t>
+  </si>
+  <si>
+    <t>26/09/2019</t>
+  </si>
+  <si>
+    <t>27/09/2019</t>
+  </si>
+  <si>
+    <t>15/10/2019</t>
+  </si>
+  <si>
+    <t>16/10/2019</t>
+  </si>
+  <si>
+    <t>17/10/2019</t>
+  </si>
+  <si>
+    <t>18/10/2019</t>
+  </si>
+  <si>
+    <t>22/10/2019</t>
+  </si>
+  <si>
+    <t>23/10/2019</t>
+  </si>
+  <si>
+    <t>24/10/2019</t>
+  </si>
+  <si>
+    <t>25/10/2019</t>
+  </si>
+  <si>
+    <t>28/10/2019</t>
+  </si>
+  <si>
+    <t>29/10/2019</t>
+  </si>
+  <si>
+    <t>30/10/2019</t>
+  </si>
+  <si>
+    <t>31/10/2019</t>
+  </si>
+  <si>
+    <t>13/11/2019</t>
+  </si>
+  <si>
+    <t>14/11/2019</t>
+  </si>
+  <si>
+    <t>15/11/2019</t>
+  </si>
+  <si>
+    <t>18/11/2019</t>
+  </si>
+  <si>
+    <t>19/11/2019</t>
+  </si>
+  <si>
+    <t>20/11/2019</t>
+  </si>
+  <si>
+    <t>21/11/2019</t>
+  </si>
+  <si>
+    <t>22/11/2019</t>
+  </si>
+  <si>
+    <t>25/11/2019</t>
+  </si>
+  <si>
+    <t>26/11/2019</t>
+  </si>
+  <si>
+    <t>27/11/2019</t>
+  </si>
+  <si>
+    <t>28/11/2019</t>
+  </si>
+  <si>
+    <t>29/11/2019</t>
+  </si>
+  <si>
+    <t>13/12/2019</t>
+  </si>
+  <si>
+    <t>16/12/2019</t>
+  </si>
+  <si>
+    <t>17/12/2019</t>
+  </si>
+  <si>
+    <t>18/12/2019</t>
+  </si>
+  <si>
+    <t>19/12/2019</t>
+  </si>
+  <si>
+    <t>20/12/2019</t>
+  </si>
+  <si>
+    <t>23/12/2019</t>
+  </si>
+  <si>
+    <t>24/12/2019</t>
+  </si>
+  <si>
+    <t>26/12/2019</t>
+  </si>
+  <si>
+    <t>27/12/2019</t>
+  </si>
+  <si>
+    <t>30/12/2019</t>
+  </si>
+  <si>
+    <t>31/12/2019</t>
+  </si>
+  <si>
+    <t>13/01/2020</t>
+  </si>
+  <si>
+    <t>14/01/2020</t>
+  </si>
+  <si>
+    <t>15/01/2020</t>
+  </si>
+  <si>
+    <t>16/01/2020</t>
+  </si>
+  <si>
+    <t>17/01/2020</t>
+  </si>
+  <si>
+    <t>20/01/2020</t>
+  </si>
+  <si>
+    <t>21/01/2020</t>
+  </si>
+  <si>
+    <t>22/01/2020</t>
+  </si>
+  <si>
+    <t>23/01/2020</t>
+  </si>
+  <si>
+    <t>24/01/2020</t>
+  </si>
+  <si>
+    <t>27/01/2020</t>
+  </si>
+  <si>
+    <t>28/01/2020</t>
+  </si>
+  <si>
+    <t>29/01/2020</t>
+  </si>
+  <si>
+    <t>30/01/2020</t>
+  </si>
+  <si>
+    <t>31/01/2020</t>
+  </si>
+  <si>
+    <t>13/02/2020</t>
+  </si>
+  <si>
+    <t>14/02/2020</t>
+  </si>
+  <si>
+    <t>17/02/2020</t>
+  </si>
+  <si>
+    <t>18/02/2020</t>
+  </si>
+  <si>
+    <t>19/02/2020</t>
+  </si>
+  <si>
+    <t>20/02/2020</t>
+  </si>
+  <si>
+    <t>21/02/2020</t>
+  </si>
+  <si>
+    <t>24/02/2020</t>
+  </si>
+  <si>
+    <t>25/02/2020</t>
+  </si>
+  <si>
+    <t>26/02/2020</t>
+  </si>
+  <si>
+    <t>27/02/2020</t>
+  </si>
+  <si>
+    <t>28/02/2020</t>
+  </si>
+  <si>
+    <t>13/03/2020</t>
+  </si>
+  <si>
+    <t>16/03/2020</t>
+  </si>
+  <si>
+    <t>17/03/2020</t>
+  </si>
+  <si>
+    <t>18/03/2020</t>
+  </si>
+  <si>
+    <t>19/03/2020</t>
+  </si>
+  <si>
+    <t>20/03/2020</t>
+  </si>
+  <si>
+    <t>23/03/2020</t>
+  </si>
+  <si>
+    <t>24/03/2020</t>
+  </si>
+  <si>
+    <t>25/03/2020</t>
+  </si>
+  <si>
+    <t>26/03/2020</t>
+  </si>
+  <si>
+    <t>27/03/2020</t>
+  </si>
+  <si>
+    <t>30/03/2020</t>
+  </si>
+  <si>
+    <t>31/03/2020</t>
+  </si>
+  <si>
+    <t>14/04/2020</t>
+  </si>
+  <si>
+    <t>16/04/2020</t>
+  </si>
+  <si>
+    <t>17/04/2020</t>
+  </si>
+  <si>
+    <t>20/04/2020</t>
+  </si>
+  <si>
+    <t>21/04/2020</t>
+  </si>
+  <si>
+    <t>22/04/2020</t>
+  </si>
+  <si>
+    <t>23/04/2020</t>
+  </si>
+  <si>
+    <t>24/04/2020</t>
+  </si>
+  <si>
+    <t>27/04/2020</t>
+  </si>
+  <si>
+    <t>28/04/2020</t>
+  </si>
+  <si>
+    <t>30/04/2020</t>
+  </si>
+  <si>
+    <t>13/05/2020</t>
+  </si>
+  <si>
+    <t>14/05/2020</t>
+  </si>
+  <si>
+    <t>15/05/2020</t>
+  </si>
+  <si>
+    <t>18/05/2020</t>
+  </si>
+  <si>
+    <t>19/05/2020</t>
+  </si>
+  <si>
+    <t>20/05/2020</t>
+  </si>
+  <si>
+    <t>21/05/2020</t>
+  </si>
+  <si>
+    <t>22/05/2020</t>
+  </si>
+  <si>
+    <t>26/05/2020</t>
+  </si>
+  <si>
+    <t>27/05/2020</t>
+  </si>
+  <si>
+    <t>28/05/2020</t>
+  </si>
+  <si>
+    <t>15/06/2020</t>
+  </si>
+  <si>
+    <t>16/06/2020</t>
+  </si>
+  <si>
+    <t>17/06/2020</t>
+  </si>
+  <si>
+    <t>18/06/2020</t>
+  </si>
+  <si>
+    <t>19/06/2020</t>
+  </si>
+  <si>
+    <t>22/06/2020</t>
+  </si>
+  <si>
+    <t>23/06/2020</t>
+  </si>
+  <si>
+    <t>24/06/2020</t>
+  </si>
+  <si>
+    <t>25/06/2020</t>
+  </si>
+  <si>
+    <t>26/06/2020</t>
+  </si>
+  <si>
+    <t>29/06/2020</t>
+  </si>
+  <si>
+    <t>30/06/2020</t>
+  </si>
+  <si>
+    <t>13/07/2020</t>
+  </si>
+  <si>
+    <t>14/07/2020</t>
+  </si>
+  <si>
+    <t>15/07/2020</t>
+  </si>
+  <si>
+    <t>16/07/2020</t>
+  </si>
+  <si>
+    <t>17/07/2020</t>
+  </si>
+  <si>
+    <t>20/07/2020</t>
+  </si>
+  <si>
+    <t>21/07/2020</t>
+  </si>
+  <si>
+    <t>22/07/2020</t>
+  </si>
+  <si>
+    <t>23/07/2020</t>
+  </si>
+  <si>
+    <t>24/07/2020</t>
+  </si>
+  <si>
+    <t>27/07/2020</t>
+  </si>
+  <si>
+    <t>28/07/2020</t>
+  </si>
+  <si>
+    <t>29/07/2020</t>
+  </si>
+  <si>
+    <t>31/07/2020</t>
+  </si>
+  <si>
+    <t>13/08/2020</t>
+  </si>
+  <si>
+    <t>14/08/2020</t>
+  </si>
+  <si>
+    <t>17/08/2020</t>
+  </si>
+  <si>
+    <t>18/08/2020</t>
+  </si>
+  <si>
+    <t>19/08/2020</t>
+  </si>
+  <si>
+    <t>20/08/2020</t>
+  </si>
+  <si>
+    <t>21/08/2020</t>
+  </si>
+  <si>
+    <t>24/08/2020</t>
+  </si>
+  <si>
+    <t>25/08/2020</t>
+  </si>
+  <si>
+    <t>26/08/2020</t>
+  </si>
+  <si>
+    <t>27/08/2020</t>
+  </si>
+  <si>
+    <t>28/08/2020</t>
+  </si>
+  <si>
+    <t>31/08/2020</t>
+  </si>
+  <si>
+    <t>14/09/2020</t>
+  </si>
+  <si>
+    <t>15/09/2020</t>
+  </si>
+  <si>
+    <t>16/09/2020</t>
+  </si>
+  <si>
+    <t>17/09/2020</t>
+  </si>
+  <si>
+    <t>21/09/2020</t>
+  </si>
+  <si>
+    <t>22/09/2020</t>
+  </si>
+  <si>
+    <t>23/09/2020</t>
+  </si>
+  <si>
+    <t>24/09/2020</t>
+  </si>
+  <si>
+    <t>25/09/2020</t>
+  </si>
+  <si>
+    <t>29/09/2020</t>
+  </si>
+  <si>
+    <t>30/09/2020</t>
+  </si>
+  <si>
+    <t>13/10/2020</t>
+  </si>
+  <si>
+    <t>14/10/2020</t>
+  </si>
+  <si>
+    <t>15/10/2020</t>
+  </si>
+  <si>
+    <t>16/10/2020</t>
+  </si>
+  <si>
+    <t>19/10/2020</t>
+  </si>
+  <si>
+    <t>20/10/2020</t>
+  </si>
+  <si>
+    <t>21/10/2020</t>
+  </si>
+  <si>
+    <t>22/10/2020</t>
+  </si>
+  <si>
+    <t>23/10/2020</t>
+  </si>
+  <si>
+    <t>26/10/2020</t>
+  </si>
+  <si>
+    <t>27/10/2020</t>
+  </si>
+  <si>
+    <t>28/10/2020</t>
+  </si>
+  <si>
+    <t>29/10/2020</t>
+  </si>
+  <si>
+    <t>30/10/2020</t>
+  </si>
+  <si>
+    <t>13/11/2020</t>
+  </si>
+  <si>
+    <t>16/11/2020</t>
+  </si>
+  <si>
+    <t>17/11/2020</t>
+  </si>
+  <si>
+    <t>18/11/2020</t>
+  </si>
+  <si>
+    <t>19/11/2020</t>
+  </si>
+  <si>
+    <t>20/11/2020</t>
+  </si>
+  <si>
+    <t>23/11/2020</t>
+  </si>
+  <si>
+    <t>24/11/2020</t>
+  </si>
+  <si>
+    <t>25/11/2020</t>
+  </si>
+  <si>
+    <t>26/11/2020</t>
+  </si>
+  <si>
+    <t>27/11/2020</t>
+  </si>
+  <si>
+    <t>30/11/2020</t>
+  </si>
+  <si>
+    <t>14/12/2020</t>
+  </si>
+  <si>
+    <t>15/12/2020</t>
+  </si>
+  <si>
+    <t>16/12/2020</t>
+  </si>
+  <si>
+    <t>17/12/2020</t>
+  </si>
+  <si>
+    <t>18/12/2020</t>
+  </si>
+  <si>
+    <t>21/12/2020</t>
+  </si>
+  <si>
+    <t>22/12/2020</t>
+  </si>
+  <si>
+    <t>23/12/2020</t>
+  </si>
+  <si>
+    <t>24/12/2020</t>
+  </si>
+  <si>
+    <t>28/12/2020</t>
+  </si>
+  <si>
+    <t>29/12/2020</t>
+  </si>
+  <si>
+    <t>30/12/2020</t>
+  </si>
+  <si>
+    <t>31/12/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
@@ -47,159 +942,141 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
-      <charset val="177"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -207,7 +1084,7 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -552,39 +1429,42 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -662,7 +1542,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -674,7 +1554,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -691,9 +1571,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -721,14 +1601,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -756,6 +1653,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -908,32 +1822,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B250"/>
+  <dimension ref="A1:B495"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.875" customWidth="1"/>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -941,1968 +1855,3928 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>43465</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="5">
         <v>3.7480000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>43467</v>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>43497</v>
       </c>
       <c r="B7" s="5">
         <v>3.746</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>43468</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>43525</v>
       </c>
       <c r="B8" s="5">
         <v>3.742</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>43469</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>43556</v>
       </c>
       <c r="B9" s="5">
         <v>3.72</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>43472</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>43647</v>
       </c>
       <c r="B10" s="5">
         <v>3.694</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>43473</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>43678</v>
       </c>
       <c r="B11" s="5">
         <v>3.6989999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>43474</v>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>43709</v>
       </c>
       <c r="B12" s="5">
         <v>3.6819999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>43475</v>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>43739</v>
       </c>
       <c r="B13" s="5">
         <v>3.6640000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>43476</v>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>43770</v>
       </c>
       <c r="B14" s="5">
         <v>3.673</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>43479</v>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B15" s="5">
         <v>3.657</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>43480</v>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B16" s="5">
         <v>3.67</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>43481</v>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B17" s="5">
         <v>3.6779999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>43482</v>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B18" s="5">
         <v>3.6880000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>43483</v>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B19" s="5">
         <v>3.6920000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>43486</v>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B20" s="5">
         <v>3.698</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>43487</v>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B21" s="5">
         <v>3.69</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>43488</v>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B22" s="5">
         <v>3.6829999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>43489</v>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B23" s="5">
         <v>3.6829999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>43490</v>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B24" s="5">
         <v>3.6850000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>43493</v>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B25" s="5">
         <v>3.68</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>43494</v>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B26" s="5">
         <v>3.6779999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>43495</v>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B27" s="5">
         <v>3.6709999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>43496</v>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B28" s="5">
         <v>3.6419999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>43497</v>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
+        <v>43467</v>
       </c>
       <c r="B29" s="5">
         <v>3.633</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>43500</v>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
+        <v>43557</v>
       </c>
       <c r="B30" s="5">
         <v>3.6269999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>43501</v>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
+        <v>43587</v>
       </c>
       <c r="B31" s="5">
         <v>3.61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>43502</v>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
+        <v>43618</v>
       </c>
       <c r="B32" s="5">
         <v>3.6190000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>43503</v>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
+        <v>43648</v>
       </c>
       <c r="B33" s="5">
         <v>3.6269999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>43504</v>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
+        <v>43679</v>
       </c>
       <c r="B34" s="5">
         <v>3.6339999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>43507</v>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
+        <v>43771</v>
       </c>
       <c r="B35" s="5">
         <v>3.6429999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>43508</v>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
+        <v>43801</v>
       </c>
       <c r="B36" s="5">
         <v>3.6429999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>43509</v>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B37" s="5">
         <v>3.637</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>43510</v>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B38" s="5">
         <v>3.6619999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>43511</v>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="B39" s="5">
         <v>3.641</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>43514</v>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B40" s="5">
         <v>3.62</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>43515</v>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B41" s="5">
         <v>3.6309999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>43516</v>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B42" s="5">
         <v>3.617</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <v>43517</v>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B43" s="5">
         <v>3.617</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <v>43518</v>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B44" s="5">
         <v>3.613</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>43521</v>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B45" s="5">
         <v>3.605</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <v>43522</v>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B46" s="5">
         <v>3.6240000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
-        <v>43523</v>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B47" s="5">
         <v>3.6190000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>43524</v>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B48" s="5">
         <v>3.6040000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>43525</v>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="6">
+        <v>43468</v>
       </c>
       <c r="B49" s="5">
         <v>3.6240000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>43528</v>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="6">
+        <v>43558</v>
       </c>
       <c r="B50" s="5">
         <v>3.625</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>43529</v>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="6">
+        <v>43588</v>
       </c>
       <c r="B51" s="5">
         <v>3.6190000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>43530</v>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="6">
+        <v>43619</v>
       </c>
       <c r="B52" s="5">
         <v>3.6160000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>43531</v>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="6">
+        <v>43649</v>
       </c>
       <c r="B53" s="5">
         <v>3.6160000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>43532</v>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="6">
+        <v>43680</v>
       </c>
       <c r="B54" s="5">
         <v>3.6309999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <v>43535</v>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="6">
+        <v>43772</v>
       </c>
       <c r="B55" s="5">
         <v>3.621</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
-        <v>43536</v>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="6">
+        <v>43802</v>
       </c>
       <c r="B56" s="5">
         <v>3.6230000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
-        <v>43537</v>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B57" s="5">
         <v>3.617</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
-        <v>43538</v>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B58" s="5">
         <v>3.6</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
-        <v>43539</v>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B59" s="5">
         <v>3.6040000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
-        <v>43542</v>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B60" s="5">
         <v>3.601</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
-        <v>43543</v>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B61" s="5">
         <v>3.6059999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
-        <v>43544</v>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B62" s="5">
         <v>3.6080000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
-        <v>43549</v>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B63" s="5">
         <v>3.6230000000000002</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
-        <v>43550</v>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B64" s="5">
         <v>3.617</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
-        <v>43551</v>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B65" s="5">
         <v>3.6349999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
-        <v>43552</v>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="B66" s="5">
         <v>3.6360000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <v>43553</v>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="B67" s="5">
         <v>3.6320000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <v>43556</v>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="6">
+        <v>43469</v>
       </c>
       <c r="B68" s="5">
         <v>3.6259999999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
-        <v>43557</v>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="6">
+        <v>43500</v>
       </c>
       <c r="B69" s="5">
         <v>3.6240000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
-        <v>43558</v>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="6">
+        <v>43528</v>
       </c>
       <c r="B70" s="5">
         <v>3.6</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="6">
         <v>43559</v>
       </c>
       <c r="B71" s="5">
         <v>3.6030000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
-        <v>43560</v>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="6">
+        <v>43589</v>
       </c>
       <c r="B72" s="5">
         <v>3.5870000000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
-        <v>43563</v>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="6">
+        <v>43681</v>
       </c>
       <c r="B73" s="5">
         <v>3.58</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
-        <v>43565</v>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="6">
+        <v>43742</v>
       </c>
       <c r="B74" s="5">
         <v>3.5779999999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
-        <v>43566</v>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="6">
+        <v>43773</v>
       </c>
       <c r="B75" s="5">
         <v>3.5830000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
-        <v>43567</v>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="6">
+        <v>43803</v>
       </c>
       <c r="B76" s="5">
         <v>3.5779999999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
-        <v>43570</v>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="B77" s="5">
         <v>3.5609999999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
-        <v>43571</v>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B78" s="5">
         <v>3.5579999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
-        <v>43572</v>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="B79" s="5">
         <v>3.5750000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
-        <v>43573</v>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="B80" s="5">
         <v>3.589</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
-        <v>43578</v>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="B81" s="5">
         <v>3.593</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
-        <v>43579</v>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="B82" s="5">
         <v>3.6139999999999999</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
-        <v>43580</v>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="B83" s="5">
         <v>3.6280000000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
-        <v>43584</v>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="B84" s="5">
         <v>3.6179999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
-        <v>43585</v>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="B85" s="5">
         <v>3.6080000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
-        <v>43586</v>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="6">
+        <v>43470</v>
       </c>
       <c r="B86" s="5">
         <v>3.5859999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
-        <v>43587</v>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="6">
+        <v>43501</v>
       </c>
       <c r="B87" s="5">
         <v>3.5979999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
-        <v>43588</v>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="6">
+        <v>43529</v>
       </c>
       <c r="B88" s="5">
         <v>3.601</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
-        <v>43591</v>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="6">
+        <v>43621</v>
       </c>
       <c r="B89" s="5">
         <v>3.5910000000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
-        <v>43592</v>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="6">
+        <v>43651</v>
       </c>
       <c r="B90" s="5">
         <v>3.585</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
-        <v>43593</v>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="6">
+        <v>43682</v>
       </c>
       <c r="B91" s="5">
         <v>3.5840000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
-        <v>43595</v>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="6">
+        <v>43743</v>
       </c>
       <c r="B92" s="5">
         <v>3.5670000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
-        <v>43598</v>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="B93" s="5">
         <v>3.5680000000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
-        <v>43599</v>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="B94" s="5">
         <v>3.577</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
-        <v>43600</v>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B95" s="5">
         <v>3.5710000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
-        <v>43601</v>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="B96" s="5">
         <v>3.5680000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
-        <v>43602</v>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B97" s="5">
         <v>3.5750000000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="4">
-        <v>43605</v>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="B98" s="5">
         <v>3.573</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
-        <v>43606</v>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="B99" s="5">
         <v>3.5979999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="4">
-        <v>43607</v>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B100" s="5">
         <v>3.6110000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
-        <v>43608</v>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="B101" s="5">
         <v>3.6150000000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
-        <v>43609</v>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B102" s="5">
         <v>3.605</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="4">
-        <v>43613</v>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="B103" s="5">
         <v>3.6139999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="4">
-        <v>43614</v>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="B104" s="5">
         <v>3.617</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="4">
-        <v>43615</v>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="B105" s="5">
         <v>3.62</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="4">
-        <v>43616</v>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="B106" s="5">
         <v>3.6339999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="4">
-        <v>43619</v>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="6">
+        <v>43530</v>
       </c>
       <c r="B107" s="5">
         <v>3.633</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="4">
-        <v>43620</v>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="6">
+        <v>43561</v>
       </c>
       <c r="B108" s="5">
         <v>3.6120000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="4">
-        <v>43621</v>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="6">
+        <v>43591</v>
       </c>
       <c r="B109" s="5">
         <v>3.61</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="4">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="6">
         <v>43622</v>
       </c>
       <c r="B110" s="5">
         <v>3.601</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
-        <v>43623</v>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="6">
+        <v>43652</v>
       </c>
       <c r="B111" s="5">
         <v>3.601</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
-        <v>43626</v>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" s="6">
+        <v>43744</v>
       </c>
       <c r="B112" s="5">
         <v>3.585</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="4">
-        <v>43627</v>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="6">
+        <v>43775</v>
       </c>
       <c r="B113" s="5">
         <v>3.581</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="4">
-        <v>43628</v>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" s="6">
+        <v>43805</v>
       </c>
       <c r="B114" s="5">
         <v>3.5819999999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="4">
-        <v>43629</v>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="B115" s="5">
         <v>3.5920000000000001</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="4">
-        <v>43630</v>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="B116" s="5">
         <v>3.6</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="4">
-        <v>43633</v>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="B117" s="5">
         <v>3.61</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="4">
-        <v>43634</v>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B118" s="5">
         <v>3.6120000000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="4">
-        <v>43635</v>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="B119" s="5">
         <v>3.609</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="4">
-        <v>43636</v>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B120" s="5">
         <v>3.5790000000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="4">
-        <v>43637</v>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B121" s="5">
         <v>3.5939999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="4">
-        <v>43640</v>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="B122" s="5">
         <v>3.6040000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="4">
-        <v>43641</v>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="B123" s="5">
         <v>3.6019999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="4">
-        <v>43642</v>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="B124" s="5">
         <v>3.5910000000000002</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="4">
-        <v>43643</v>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="B125" s="5">
         <v>3.5819999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="4">
-        <v>43644</v>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="B126" s="5">
         <v>3.5659999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="4">
-        <v>43647</v>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" s="6">
+        <v>43472</v>
       </c>
       <c r="B127" s="5">
         <v>3.5739999999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="4">
-        <v>43648</v>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" s="6">
+        <v>43503</v>
       </c>
       <c r="B128" s="5">
         <v>3.5750000000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="4">
-        <v>43649</v>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="6">
+        <v>43531</v>
       </c>
       <c r="B129" s="5">
         <v>3.5720000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="4">
-        <v>43650</v>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" s="6">
+        <v>43562</v>
       </c>
       <c r="B130" s="5">
         <v>3.5670000000000002</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="4">
-        <v>43651</v>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" s="6">
+        <v>43592</v>
       </c>
       <c r="B131" s="5">
         <v>3.5619999999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="4">
-        <v>43654</v>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" s="6">
+        <v>43684</v>
       </c>
       <c r="B132" s="5">
         <v>3.573</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="4">
-        <v>43655</v>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" s="6">
+        <v>43715</v>
       </c>
       <c r="B133" s="5">
         <v>3.5680000000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="4">
-        <v>43656</v>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" s="6">
+        <v>43745</v>
       </c>
       <c r="B134" s="5">
         <v>3.573</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="4">
-        <v>43657</v>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" s="6">
+        <v>43776</v>
       </c>
       <c r="B135" s="5">
         <v>3.5470000000000002</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="4">
-        <v>43658</v>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" s="6">
+        <v>43806</v>
       </c>
       <c r="B136" s="5">
         <v>3.5510000000000002</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="4">
-        <v>43661</v>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="B137" s="5">
         <v>3.5390000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="4">
-        <v>43662</v>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="B138" s="5">
         <v>3.5419999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="4">
-        <v>43663</v>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="B139" s="5">
         <v>3.5409999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="4">
-        <v>43664</v>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="B140" s="5">
         <v>3.5430000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="4">
-        <v>43665</v>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="B141" s="5">
         <v>3.5350000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="4">
-        <v>43668</v>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="B142" s="5">
         <v>3.5339999999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="4">
-        <v>43669</v>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="B143" s="5">
         <v>3.5369999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="4">
-        <v>43670</v>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="B144" s="5">
         <v>3.5209999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="4">
-        <v>43671</v>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="B145" s="5">
         <v>3.5230000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="4">
-        <v>43672</v>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="B146" s="5">
         <v>3.5259999999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="4">
-        <v>43675</v>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="B147" s="5">
         <v>3.5249999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="4">
-        <v>43676</v>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="B148" s="5">
         <v>3.5</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="4">
-        <v>43677</v>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="B149" s="5">
         <v>3.4990000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="4">
-        <v>43678</v>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" s="6">
+        <v>43473</v>
       </c>
       <c r="B150" s="5">
         <v>3.524</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="4">
-        <v>43679</v>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" s="6">
+        <v>43504</v>
       </c>
       <c r="B151" s="5">
         <v>3.5089999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="4">
-        <v>43682</v>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" s="6">
+        <v>43593</v>
       </c>
       <c r="B152" s="5">
         <v>3.4940000000000002</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="4">
-        <v>43683</v>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" s="6">
+        <v>43624</v>
       </c>
       <c r="B153" s="5">
         <v>3.4940000000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="4">
-        <v>43684</v>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" s="6">
+        <v>43654</v>
       </c>
       <c r="B154" s="5">
         <v>3.4870000000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="4">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" s="6">
         <v>43685</v>
       </c>
       <c r="B155" s="5">
         <v>3.4830000000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="4">
-        <v>43686</v>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" s="6">
+        <v>43716</v>
       </c>
       <c r="B156" s="5">
         <v>3.4790000000000001</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="4">
-        <v>43689</v>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" s="6">
+        <v>43807</v>
       </c>
       <c r="B157" s="5">
         <v>3.484</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="4">
-        <v>43690</v>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="B158" s="5">
         <v>3.4929999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="4">
-        <v>43691</v>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="B159" s="5">
         <v>3.4889999999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="4">
-        <v>43692</v>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="B160" s="5">
         <v>3.5190000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="4">
-        <v>43693</v>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="B161" s="5">
         <v>3.5409999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="4">
-        <v>43696</v>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="B162" s="5">
         <v>3.5449999999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="4">
-        <v>43697</v>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="B163" s="5">
         <v>3.524</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="4">
-        <v>43698</v>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="B164" s="5">
         <v>3.5270000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="4">
-        <v>43699</v>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="B165" s="5">
         <v>3.5249999999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="4">
-        <v>43700</v>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="B166" s="5">
         <v>3.5110000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="4">
-        <v>43703</v>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="B167" s="5">
         <v>3.5190000000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="4">
-        <v>43704</v>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="B168" s="5">
         <v>3.52</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="4">
-        <v>43705</v>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="B169" s="5">
         <v>3.524</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="4">
-        <v>43706</v>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="B170" s="5">
         <v>3.5209999999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="4">
-        <v>43707</v>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="B171" s="5">
         <v>3.5350000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="4">
-        <v>43710</v>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" s="6">
+        <v>43505</v>
       </c>
       <c r="B172" s="5">
         <v>3.5379999999999998</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="4">
-        <v>43711</v>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" s="6">
+        <v>43533</v>
       </c>
       <c r="B173" s="5">
         <v>3.5489999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="4">
-        <v>43712</v>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" s="6">
+        <v>43564</v>
       </c>
       <c r="B174" s="5">
         <v>3.5270000000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="4">
-        <v>43713</v>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" s="6">
+        <v>43594</v>
       </c>
       <c r="B175" s="5">
         <v>3.512</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="4">
-        <v>43714</v>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" s="6">
+        <v>43625</v>
       </c>
       <c r="B176" s="5">
         <v>3.5169999999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="4">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" s="6">
         <v>43717</v>
       </c>
       <c r="B177" s="5">
         <v>3.5270000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="4">
-        <v>43718</v>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" s="6">
+        <v>43747</v>
       </c>
       <c r="B178" s="5">
         <v>3.5379999999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="4">
-        <v>43719</v>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" s="6">
+        <v>43778</v>
       </c>
       <c r="B179" s="5">
         <v>3.544</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="4">
-        <v>43720</v>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" s="6">
+        <v>43808</v>
       </c>
       <c r="B180" s="5">
         <v>3.5409999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="4">
-        <v>43721</v>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="B181" s="5">
         <v>3.5270000000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="4">
-        <v>43724</v>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="B182" s="5">
         <v>3.5379999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="4">
-        <v>43726</v>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="B183" s="5">
         <v>3.5409999999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="4">
-        <v>43727</v>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="B184" s="5">
         <v>3.5209999999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="4">
-        <v>43728</v>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="B185" s="5">
         <v>3.5129999999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="4">
-        <v>43731</v>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="B186" s="5">
         <v>3.5169999999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="4">
-        <v>43732</v>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="B187" s="5">
         <v>3.5070000000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="4">
-        <v>43733</v>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="B188" s="5">
         <v>3.5009999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="4">
-        <v>43734</v>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="B189" s="5">
         <v>3.5169999999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="4">
-        <v>43735</v>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="B190" s="5">
         <v>3.4820000000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="4">
-        <v>43740</v>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" s="6">
+        <v>43506</v>
       </c>
       <c r="B191" s="5">
         <v>3.4849999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="4">
-        <v>43741</v>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" s="6">
+        <v>43534</v>
       </c>
       <c r="B192" s="5">
         <v>3.4929999999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="4">
-        <v>43742</v>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" s="6">
+        <v>43565</v>
       </c>
       <c r="B193" s="5">
         <v>3.4809999999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="4">
-        <v>43745</v>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" s="6">
+        <v>43656</v>
       </c>
       <c r="B194" s="5">
         <v>3.4929999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="4">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" s="6">
         <v>43748</v>
       </c>
       <c r="B195" s="5">
         <v>3.504</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="4">
-        <v>43749</v>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" s="6">
+        <v>43779</v>
       </c>
       <c r="B196" s="5">
         <v>3.51</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="4">
-        <v>43753</v>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="B197" s="5">
         <v>3.5129999999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="4">
-        <v>43754</v>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="B198" s="5">
         <v>3.536</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="4">
-        <v>43755</v>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="B199" s="5">
         <v>3.5449999999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="4">
-        <v>43756</v>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="B200" s="5">
         <v>3.5329999999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="4">
-        <v>43760</v>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="B201" s="5">
         <v>3.5369999999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="4">
-        <v>43761</v>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="B202" s="5">
         <v>3.5379999999999998</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="4">
-        <v>43762</v>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="B203" s="5">
         <v>3.5230000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="4">
-        <v>43763</v>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="B204" s="5">
         <v>3.5390000000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="4">
-        <v>43766</v>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="B205" s="5">
         <v>3.5289999999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" s="4">
-        <v>43767</v>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="B206" s="5">
         <v>3.53</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="4">
-        <v>43768</v>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="B207" s="5">
         <v>3.528</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="4">
-        <v>43769</v>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="B208" s="5">
         <v>3.5289999999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="4">
-        <v>43770</v>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" s="6">
+        <v>43476</v>
       </c>
       <c r="B209" s="5">
         <v>3.5209999999999999</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" s="4">
-        <v>43773</v>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" s="6">
+        <v>43566</v>
       </c>
       <c r="B210" s="5">
         <v>3.5219999999999998</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" s="4">
-        <v>43774</v>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" s="6">
+        <v>43596</v>
       </c>
       <c r="B211" s="5">
         <v>3.5009999999999999</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" s="4">
-        <v>43775</v>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" s="6">
+        <v>43627</v>
       </c>
       <c r="B212" s="5">
         <v>3.49</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" s="4">
-        <v>43776</v>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" s="6">
+        <v>43657</v>
       </c>
       <c r="B213" s="5">
         <v>3.4870000000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" s="4">
-        <v>43777</v>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" s="6">
+        <v>43688</v>
       </c>
       <c r="B214" s="5">
         <v>3.4950000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" s="4">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" s="6">
         <v>43780</v>
       </c>
       <c r="B215" s="5">
         <v>3.4990000000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" s="4">
-        <v>43781</v>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" s="6">
+        <v>43810</v>
       </c>
       <c r="B216" s="5">
         <v>3.5110000000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" s="4">
-        <v>43782</v>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="B217" s="5">
         <v>3.4950000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" s="4">
-        <v>43783</v>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="B218" s="5">
         <v>3.488</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" s="4">
-        <v>43784</v>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="B219" s="5">
         <v>3.4780000000000002</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" s="4">
-        <v>43787</v>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="B220" s="5">
         <v>3.4630000000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" s="4">
-        <v>43788</v>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="B221" s="5">
         <v>3.4569999999999999</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" s="4">
-        <v>43789</v>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" s="4" t="s">
+        <v>132</v>
       </c>
       <c r="B222" s="5">
         <v>3.4710000000000001</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" s="4">
-        <v>43790</v>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="B223" s="5">
         <v>3.4550000000000001</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" s="4">
-        <v>43791</v>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="B224" s="5">
         <v>3.46</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" s="4">
-        <v>43794</v>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="B225" s="5">
         <v>3.4609999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" s="4">
-        <v>43795</v>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="B226" s="5">
         <v>3.4630000000000001</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" s="4">
-        <v>43796</v>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="B227" s="5">
         <v>3.4710000000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" s="4">
-        <v>43797</v>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="B228" s="5">
         <v>3.4710000000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" s="4">
-        <v>43798</v>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="B229" s="5">
         <v>3.476</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" s="4">
-        <v>43801</v>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" s="6">
+        <v>43508</v>
       </c>
       <c r="B230" s="5">
         <v>3.4740000000000002</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" s="4">
-        <v>43802</v>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" s="6">
+        <v>43536</v>
       </c>
       <c r="B231" s="5">
         <v>3.4809999999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" s="4">
-        <v>43803</v>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" s="6">
+        <v>43567</v>
       </c>
       <c r="B232" s="5">
         <v>3.4710000000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" s="4">
-        <v>43804</v>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" s="6">
+        <v>43597</v>
       </c>
       <c r="B233" s="5">
         <v>3.4670000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" s="4">
-        <v>43805</v>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" s="6">
+        <v>43628</v>
       </c>
       <c r="B234" s="5">
         <v>3.4630000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235" s="4">
-        <v>43808</v>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" s="6">
+        <v>43720</v>
       </c>
       <c r="B235" s="5">
         <v>3.4710000000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" s="4">
-        <v>43809</v>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" s="6">
+        <v>43750</v>
       </c>
       <c r="B236" s="5">
         <v>3.4649999999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237" s="4">
-        <v>43810</v>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" s="6">
+        <v>43781</v>
       </c>
       <c r="B237" s="5">
         <v>3.4769999999999999</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238" s="4">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" s="6">
         <v>43811</v>
       </c>
       <c r="B238" s="5">
         <v>3.4809999999999999</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239" s="4">
-        <v>43812</v>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="B239" s="5">
         <v>3.476</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" s="4">
-        <v>43815</v>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="B240" s="5">
         <v>3.4980000000000002</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241" s="4">
-        <v>43816</v>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="B241" s="5">
         <v>3.492</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242" s="4">
-        <v>43817</v>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" s="4" t="s">
+        <v>143</v>
       </c>
       <c r="B242" s="5">
         <v>3.5009999999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A243" s="4">
-        <v>43818</v>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="B243" s="5">
         <v>3.4929999999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A244" s="4">
-        <v>43819</v>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="B244" s="5">
         <v>3.4769999999999999</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245" s="4">
-        <v>43822</v>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="B245" s="5">
         <v>3.472</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246" s="4">
-        <v>43823</v>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="B246" s="5">
         <v>3.4660000000000002</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" s="4">
-        <v>43825</v>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="B247" s="5">
         <v>3.472</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A248" s="4">
-        <v>43826</v>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="B248" s="5">
         <v>3.468</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249" s="4">
-        <v>43829</v>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="B249" s="5">
         <v>3.4630000000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250" s="4">
-        <v>43830</v>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="B250" s="5">
         <v>3.456</v>
       </c>
     </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" s="6">
+        <v>43862</v>
+      </c>
+      <c r="B251" s="5">
+        <v>3.452</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" s="6">
+        <v>43891</v>
+      </c>
+      <c r="B252" s="5">
+        <v>3.4670000000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" s="6">
+        <v>43983</v>
+      </c>
+      <c r="B253" s="5">
+        <v>3.4750000000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" s="6">
+        <v>44013</v>
+      </c>
+      <c r="B254" s="5">
+        <v>3.4670000000000001</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" s="6">
+        <v>44044</v>
+      </c>
+      <c r="B255" s="5">
+        <v>3.4649999999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" s="6">
+        <v>44075</v>
+      </c>
+      <c r="B256" s="5">
+        <v>3.4710000000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" s="6">
+        <v>44105</v>
+      </c>
+      <c r="B257" s="5">
+        <v>3.4729999999999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B258" s="5">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B259" s="5">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B260" s="5">
+        <v>3.4590000000000001</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B261" s="5">
+        <v>3.456</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B262" s="5">
+        <v>3.4540000000000002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B263" s="5">
+        <v>3.456</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B264" s="5">
+        <v>3.4550000000000001</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B265" s="5">
+        <v>3.452</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B266" s="5">
+        <v>3.4580000000000002</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B267" s="5">
+        <v>3.4550000000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B268" s="5">
+        <v>3.4580000000000002</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B269" s="5">
+        <v>3.4550000000000001</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B270" s="5">
+        <v>3.4580000000000002</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B271" s="5">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B272" s="5">
+        <v>3.448</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" s="6">
+        <v>43892</v>
+      </c>
+      <c r="B273" s="5">
+        <v>3.4460000000000002</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" s="6">
+        <v>43923</v>
+      </c>
+      <c r="B274" s="5">
+        <v>3.448</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" s="6">
+        <v>43953</v>
+      </c>
+      <c r="B275" s="5">
+        <v>3.452</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" s="6">
+        <v>43984</v>
+      </c>
+      <c r="B276" s="5">
+        <v>3.4390000000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" s="6">
+        <v>44014</v>
+      </c>
+      <c r="B277" s="5">
+        <v>3.4260000000000002</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" s="6">
+        <v>44106</v>
+      </c>
+      <c r="B278" s="5">
+        <v>3.4220000000000002</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" s="6">
+        <v>44137</v>
+      </c>
+      <c r="B279" s="5">
+        <v>3.419</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" s="6">
+        <v>44167</v>
+      </c>
+      <c r="B280" s="5">
+        <v>3.423</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B281" s="5">
+        <v>3.431</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B282" s="5">
+        <v>3.4340000000000002</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B283" s="5">
+        <v>3.4279999999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B284" s="5">
+        <v>3.4159999999999999</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B285" s="5">
+        <v>3.4239999999999999</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B286" s="5">
+        <v>3.4319999999999999</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B287" s="5">
+        <v>3.4239999999999999</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B288" s="5">
+        <v>3.4369999999999998</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A289" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B289" s="5">
+        <v>3.4289999999999998</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A290" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B290" s="5">
+        <v>3.4420000000000002</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A291" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B291" s="5">
+        <v>3.4340000000000002</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A292" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B292" s="5">
+        <v>3.4670000000000001</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A293" s="6">
+        <v>43893</v>
+      </c>
+      <c r="B293" s="5">
+        <v>3.4609999999999999</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A294" s="6">
+        <v>43924</v>
+      </c>
+      <c r="B294" s="5">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A295" s="6">
+        <v>43954</v>
+      </c>
+      <c r="B295" s="5">
+        <v>3.4660000000000002</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" s="6">
+        <v>43985</v>
+      </c>
+      <c r="B296" s="5">
+        <v>3.4860000000000002</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297" s="6">
+        <v>44077</v>
+      </c>
+      <c r="B297" s="5">
+        <v>3.508</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" s="6">
+        <v>44168</v>
+      </c>
+      <c r="B298" s="5">
+        <v>3.6389999999999998</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B299" s="5">
+        <v>3.6520000000000001</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B300" s="5">
+        <v>3.7280000000000002</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B301" s="5">
+        <v>3.8620000000000001</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A302" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B302" s="5">
+        <v>3.827</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B303" s="5">
+        <v>3.6829999999999998</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B304" s="5">
+        <v>3.597</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A305" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B305" s="5">
+        <v>3.698</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A306" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B306" s="5">
+        <v>3.6579999999999999</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A307" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B307" s="5">
+        <v>3.6419999999999999</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A308" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B308" s="5">
+        <v>3.6240000000000001</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A309" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B309" s="5">
+        <v>3.5979999999999999</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A310" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B310" s="5">
+        <v>3.5859999999999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A311" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B311" s="5">
+        <v>3.5649999999999999</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A312" s="6">
+        <v>43834</v>
+      </c>
+      <c r="B312" s="5">
+        <v>3.556</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A313" s="6">
+        <v>43865</v>
+      </c>
+      <c r="B313" s="5">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A314" s="6">
+        <v>43894</v>
+      </c>
+      <c r="B314" s="5">
+        <v>3.6360000000000001</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A315" s="6">
+        <v>43986</v>
+      </c>
+      <c r="B315" s="5">
+        <v>3.6269999999999998</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A316" s="6">
+        <v>44016</v>
+      </c>
+      <c r="B316" s="5">
+        <v>3.6040000000000001</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A317" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B317" s="5">
+        <v>3.5790000000000002</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A318" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B318" s="5">
+        <v>3.5939999999999999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A319" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B319" s="5">
+        <v>3.5910000000000002</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A320" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B320" s="5">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A321" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B321" s="5">
+        <v>3.552</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A322" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B322" s="5">
+        <v>3.5409999999999999</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A323" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B323" s="5">
+        <v>3.5569999999999999</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A324" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B324" s="5">
+        <v>3.524</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A325" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B325" s="5">
+        <v>3.5150000000000001</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A326" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B326" s="5">
+        <v>3.4990000000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A327" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B327" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A328" s="6">
+        <v>43835</v>
+      </c>
+      <c r="B328" s="5">
+        <v>3.4910000000000001</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A329" s="6">
+        <v>43926</v>
+      </c>
+      <c r="B329" s="5">
+        <v>3.5270000000000001</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A330" s="6">
+        <v>43956</v>
+      </c>
+      <c r="B330" s="5">
+        <v>3.524</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A331" s="6">
+        <v>43987</v>
+      </c>
+      <c r="B331" s="5">
+        <v>3.5110000000000001</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A332" s="6">
+        <v>44017</v>
+      </c>
+      <c r="B332" s="5">
+        <v>3.516</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A333" s="6">
+        <v>44140</v>
+      </c>
+      <c r="B333" s="5">
+        <v>3.5179999999999998</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A334" s="6">
+        <v>44170</v>
+      </c>
+      <c r="B334" s="5">
+        <v>3.5070000000000001</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A335" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B335" s="5">
+        <v>3.5110000000000001</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A336" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B336" s="5">
+        <v>3.5459999999999998</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A337" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B337" s="5">
+        <v>3.5329999999999999</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A338" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B338" s="5">
+        <v>3.5430000000000001</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A339" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B339" s="5">
+        <v>3.5249999999999999</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A340" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B340" s="5">
+        <v>3.504</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A341" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B341" s="5">
+        <v>3.5139999999999998</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A342" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B342" s="5">
+        <v>3.5289999999999999</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A343" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B343" s="5">
+        <v>3.5150000000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A344" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B344" s="5">
+        <v>3.4990000000000001</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A345" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B345" s="5">
+        <v>3.5019999999999998</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A346" s="6">
+        <v>43836</v>
+      </c>
+      <c r="B346" s="5">
+        <v>3.5089999999999999</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A347" s="6">
+        <v>43867</v>
+      </c>
+      <c r="B347" s="5">
+        <v>3.484</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A348" s="6">
+        <v>43896</v>
+      </c>
+      <c r="B348" s="5">
+        <v>3.468</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A349" s="6">
+        <v>43927</v>
+      </c>
+      <c r="B349" s="5">
+        <v>3.4790000000000001</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A350" s="6">
+        <v>43957</v>
+      </c>
+      <c r="B350" s="5">
+        <v>3.4550000000000001</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A351" s="6">
+        <v>44049</v>
+      </c>
+      <c r="B351" s="5">
+        <v>3.4620000000000002</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A352" s="6">
+        <v>44080</v>
+      </c>
+      <c r="B352" s="5">
+        <v>3.4569999999999999</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A353" s="6">
+        <v>44110</v>
+      </c>
+      <c r="B353" s="5">
+        <v>3.4470000000000001</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A354" s="6">
+        <v>44141</v>
+      </c>
+      <c r="B354" s="5">
+        <v>3.4510000000000001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A355" s="6">
+        <v>44171</v>
+      </c>
+      <c r="B355" s="5">
+        <v>3.464</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A356" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B356" s="5">
+        <v>3.4950000000000001</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A357" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B357" s="5">
+        <v>3.472</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A358" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B358" s="5">
+        <v>3.456</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A359" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B359" s="5">
+        <v>3.4510000000000001</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A360" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B360" s="5">
+        <v>3.4470000000000001</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A361" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B361" s="5">
+        <v>3.4460000000000002</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A362" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B362" s="5">
+        <v>3.4340000000000002</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A363" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B363" s="5">
+        <v>3.4249999999999998</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A364" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B364" s="5">
+        <v>3.4420000000000002</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A365" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B365" s="5">
+        <v>3.4369999999999998</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A366" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B366" s="5">
+        <v>3.4359999999999999</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A367" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B367" s="5">
+        <v>3.4660000000000002</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A368" s="6">
+        <v>43837</v>
+      </c>
+      <c r="B368" s="5">
+        <v>3.4540000000000002</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A369" s="6">
+        <v>43868</v>
+      </c>
+      <c r="B369" s="5">
+        <v>3.448</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A370" s="6">
+        <v>43897</v>
+      </c>
+      <c r="B370" s="5">
+        <v>3.4340000000000002</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A371" s="6">
+        <v>43989</v>
+      </c>
+      <c r="B371" s="5">
+        <v>3.4420000000000002</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A372" s="6">
+        <v>44019</v>
+      </c>
+      <c r="B372" s="5">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A373" s="6">
+        <v>44050</v>
+      </c>
+      <c r="B373" s="5">
+        <v>3.4550000000000001</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A374" s="6">
+        <v>44081</v>
+      </c>
+      <c r="B374" s="5">
+        <v>3.444</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A375" s="6">
+        <v>44111</v>
+      </c>
+      <c r="B375" s="5">
+        <v>3.4569999999999999</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A376" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B376" s="5">
+        <v>3.4420000000000002</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A377" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B377" s="5">
+        <v>3.4420000000000002</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A378" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B378" s="5">
+        <v>3.431</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A379" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B379" s="5">
+        <v>3.427</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A380" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B380" s="5">
+        <v>3.4470000000000001</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A381" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B381" s="5">
+        <v>3.431</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A382" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B382" s="5">
+        <v>3.4209999999999998</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A383" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B383" s="5">
+        <v>3.419</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A384" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="B384" s="5">
+        <v>3.4209999999999998</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A385" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B385" s="5">
+        <v>3.42</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A386" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B386" s="5">
+        <v>3.4129999999999998</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A387" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B387" s="5">
+        <v>3.415</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A388" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B388" s="5">
+        <v>3.4089999999999998</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A389" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B389" s="5">
+        <v>3.4079999999999999</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A390" s="6">
+        <v>43898</v>
+      </c>
+      <c r="B390" s="5">
+        <v>3.415</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A391" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B391" s="5">
+        <v>3.4239999999999999</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A392" s="6">
+        <v>43959</v>
+      </c>
+      <c r="B392" s="5">
+        <v>3.4119999999999999</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A393" s="6">
+        <v>43990</v>
+      </c>
+      <c r="B393" s="5">
+        <v>3.4089999999999998</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A394" s="6">
+        <v>44020</v>
+      </c>
+      <c r="B394" s="5">
+        <v>3.4089999999999998</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A395" s="6">
+        <v>44112</v>
+      </c>
+      <c r="B395" s="5">
+        <v>3.4140000000000001</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A396" s="6">
+        <v>44143</v>
+      </c>
+      <c r="B396" s="5">
+        <v>3.4020000000000001</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A397" s="6">
+        <v>44173</v>
+      </c>
+      <c r="B397" s="5">
+        <v>3.4060000000000001</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A398" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="B398" s="5">
+        <v>3.4060000000000001</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A399" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B399" s="5">
+        <v>3.4039999999999999</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A400" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B400" s="5">
+        <v>3.4089999999999998</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A401" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B401" s="5">
+        <v>3.4009999999999998</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A402" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B402" s="5">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A403" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B403" s="5">
+        <v>3.4020000000000001</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A404" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B404" s="5">
+        <v>3.4039999999999999</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A405" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B405" s="5">
+        <v>3.4020000000000001</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A406" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B406" s="5">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A407" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B407" s="5">
+        <v>3.4009999999999998</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A408" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B408" s="5">
+        <v>3.3690000000000002</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A409" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B409" s="5">
+        <v>3.3679999999999999</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A410" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B410" s="5">
+        <v>3.3620000000000001</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A411" s="6">
+        <v>43839</v>
+      </c>
+      <c r="B411" s="5">
+        <v>3.3530000000000002</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A412" s="6">
+        <v>43870</v>
+      </c>
+      <c r="B412" s="5">
+        <v>3.3660000000000001</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A413" s="6">
+        <v>43899</v>
+      </c>
+      <c r="B413" s="5">
+        <v>3.3679999999999999</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A414" s="6">
+        <v>43930</v>
+      </c>
+      <c r="B414" s="5">
+        <v>3.371</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A415" s="6">
+        <v>44021</v>
+      </c>
+      <c r="B415" s="5">
+        <v>3.3780000000000001</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A416" s="6">
+        <v>44052</v>
+      </c>
+      <c r="B416" s="5">
+        <v>3.3919999999999999</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A417" s="6">
+        <v>44083</v>
+      </c>
+      <c r="B417" s="5">
+        <v>3.407</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A418" s="6">
+        <v>44113</v>
+      </c>
+      <c r="B418" s="5">
+        <v>3.4140000000000001</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A419" s="6">
+        <v>44144</v>
+      </c>
+      <c r="B419" s="5">
+        <v>3.4380000000000002</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A420" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B420" s="5">
+        <v>3.4350000000000001</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A421" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B421" s="5">
+        <v>3.4220000000000002</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A422" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B422" s="5">
+        <v>3.411</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A423" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B423" s="5">
+        <v>3.4220000000000002</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A424" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B424" s="5">
+        <v>3.4420000000000002</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A425" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B425" s="5">
+        <v>3.4409999999999998</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A426" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B426" s="5">
+        <v>3.4449999999999998</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A427" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B427" s="5">
+        <v>3.4780000000000002</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A428" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B428" s="5">
+        <v>3.4670000000000001</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A429" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B429" s="5">
+        <v>3.4590000000000001</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A430" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B430" s="5">
+        <v>3.4409999999999998</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A431" s="6">
+        <v>43840</v>
+      </c>
+      <c r="B431" s="5">
+        <v>3.427</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A432" s="6">
+        <v>43871</v>
+      </c>
+      <c r="B432" s="5">
+        <v>3.431</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A433" s="6">
+        <v>43961</v>
+      </c>
+      <c r="B433" s="5">
+        <v>3.4220000000000002</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A434" s="6">
+        <v>43992</v>
+      </c>
+      <c r="B434" s="5">
+        <v>3.411</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A435" s="6">
+        <v>44022</v>
+      </c>
+      <c r="B435" s="5">
+        <v>3.407</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A436" s="6">
+        <v>44053</v>
+      </c>
+      <c r="B436" s="5">
+        <v>3.3940000000000001</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A437" s="6">
+        <v>44084</v>
+      </c>
+      <c r="B437" s="5">
+        <v>3.3809999999999998</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A438" s="6">
+        <v>44175</v>
+      </c>
+      <c r="B438" s="5">
+        <v>3.383</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A439" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B439" s="5">
+        <v>3.3860000000000001</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A440" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B440" s="5">
+        <v>3.3839999999999999</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A441" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B441" s="5">
+        <v>3.3940000000000001</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A442" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B442" s="5">
+        <v>3.383</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A443" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B443" s="5">
+        <v>3.3780000000000001</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A444" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B444" s="5">
+        <v>3.379</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A445" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B445" s="5">
+        <v>3.3849999999999998</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A446" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B446" s="5">
+        <v>3.38</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A447" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B447" s="5">
+        <v>3.3780000000000001</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A448" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B448" s="5">
+        <v>3.3809999999999998</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A449" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B449" s="5">
+        <v>3.3820000000000001</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A450" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B450" s="5">
+        <v>3.3929999999999998</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A451" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B451" s="5">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A452" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B452" s="5">
+        <v>3.4220000000000002</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A453" s="6">
+        <v>43872</v>
+      </c>
+      <c r="B453" s="5">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A454" s="6">
+        <v>43901</v>
+      </c>
+      <c r="B454" s="5">
+        <v>3.4159999999999999</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A455" s="6">
+        <v>43932</v>
+      </c>
+      <c r="B455" s="5">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A456" s="6">
+        <v>43962</v>
+      </c>
+      <c r="B456" s="5">
+        <v>3.3809999999999998</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A457" s="6">
+        <v>43993</v>
+      </c>
+      <c r="B457" s="5">
+        <v>3.3769999999999998</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A458" s="6">
+        <v>44085</v>
+      </c>
+      <c r="B458" s="5">
+        <v>3.3610000000000002</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A459" s="6">
+        <v>44115</v>
+      </c>
+      <c r="B459" s="5">
+        <v>3.3759999999999999</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A460" s="6">
+        <v>44146</v>
+      </c>
+      <c r="B460" s="5">
+        <v>3.3860000000000001</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A461" s="6">
+        <v>44176</v>
+      </c>
+      <c r="B461" s="5">
+        <v>3.3769999999999998</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A462" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B462" s="5">
+        <v>3.3620000000000001</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A463" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B463" s="5">
+        <v>3.3559999999999999</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A464" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B464" s="5">
+        <v>3.3559999999999999</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A465" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B465" s="5">
+        <v>3.3420000000000001</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A466" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B466" s="5">
+        <v>3.351</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A467" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B467" s="5">
+        <v>3.3439999999999999</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A468" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B468" s="5">
+        <v>3.339</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A469" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B469" s="5">
+        <v>3.3410000000000002</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A470" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B470" s="5">
+        <v>3.3250000000000002</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A471" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B471" s="5">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A472" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B472" s="5">
+        <v>3.319</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A473" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B473" s="5">
+        <v>3.3079999999999998</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A474" s="6">
+        <v>43842</v>
+      </c>
+      <c r="B474" s="5">
+        <v>3.3039999999999998</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A475" s="6">
+        <v>43873</v>
+      </c>
+      <c r="B475" s="5">
+        <v>3.2890000000000001</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A476" s="6">
+        <v>43902</v>
+      </c>
+      <c r="B476" s="5">
+        <v>3.2749999999999999</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A477" s="6">
+        <v>43933</v>
+      </c>
+      <c r="B477" s="5">
+        <v>3.266</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A478" s="6">
+        <v>44024</v>
+      </c>
+      <c r="B478" s="5">
+        <v>3.2730000000000001</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A479" s="6">
+        <v>44055</v>
+      </c>
+      <c r="B479" s="5">
+        <v>3.2480000000000002</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A480" s="6">
+        <v>44086</v>
+      </c>
+      <c r="B480" s="5">
+        <v>3.2559999999999998</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A481" s="6">
+        <v>44116</v>
+      </c>
+      <c r="B481" s="5">
+        <v>3.2509999999999999</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A482" s="6">
+        <v>44147</v>
+      </c>
+      <c r="B482" s="5">
+        <v>3.254</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A483" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B483" s="5">
+        <v>3.2570000000000001</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A484" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B484" s="5">
+        <v>3.2549999999999999</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A485" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B485" s="5">
+        <v>3.2530000000000001</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A486" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B486" s="5">
+        <v>3.2450000000000001</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A487" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B487" s="5">
+        <v>3.2410000000000001</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A488" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B488" s="5">
+        <v>3.2509999999999999</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A489" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B489" s="5">
+        <v>3.234</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A490" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B490" s="5">
+        <v>3.222</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A491" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B491" s="5">
+        <v>3.218</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A492" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B492" s="5">
+        <v>3.2160000000000002</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A493" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B493" s="5">
+        <v>3.2120000000000002</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A494" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B494" s="5">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A495" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B495" s="5">
+        <v>3.2149999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>